--- a/teaching/traditional_assets/database/data/latvia/latvia_telecom_equipment.xlsx
+++ b/teaching/traditional_assets/database/data/latvia/latvia_telecom_equipment.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="rise_saf1r" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,118 +593,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0545</v>
+        <v>0.0579</v>
       </c>
       <c r="E2">
-        <v>-0.08</v>
+        <v>-0.153</v>
       </c>
       <c r="G2">
-        <v>0.08666666666666666</v>
+        <v>0.1277560975609756</v>
       </c>
       <c r="H2">
-        <v>-0.01809523809523809</v>
+        <v>0.02141463414634147</v>
       </c>
       <c r="I2">
-        <v>-0.006607142857142857</v>
+        <v>0.02224390243902439</v>
       </c>
       <c r="J2">
-        <v>-0.006267523364485981</v>
+        <v>0.02090735894483409</v>
       </c>
       <c r="K2">
-        <v>0.203</v>
+        <v>0.656</v>
       </c>
       <c r="L2">
-        <v>0.01208333333333333</v>
+        <v>0.032</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7335900000000001</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.04340769230769231</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.11827743902439</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.7335900000000001</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.04340769230769231</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.11827743902439</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>3.68</v>
+        <v>4.99</v>
       </c>
       <c r="V2">
-        <v>0.2944</v>
+        <v>0.2952662721893491</v>
       </c>
       <c r="W2">
-        <v>0.01828828828828829</v>
+        <v>0.06188679245283019</v>
       </c>
       <c r="X2">
-        <v>0.1071701218284855</v>
+        <v>0.0777626907905615</v>
       </c>
       <c r="Y2">
-        <v>-0.08888183354019719</v>
+        <v>-0.01587589833773131</v>
       </c>
       <c r="Z2">
-        <v>2.317241379310345</v>
+        <v>2.46690734055355</v>
       </c>
       <c r="AA2">
-        <v>-0.01452336448598131</v>
+        <v>0.05157651725259912</v>
       </c>
       <c r="AB2">
-        <v>0.09998650215661176</v>
+        <v>0.0734749409918339</v>
       </c>
       <c r="AC2">
-        <v>-0.1145098666425931</v>
+        <v>-0.02189842373923477</v>
       </c>
       <c r="AD2">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AG2">
-        <v>-2.29</v>
+        <v>-3.53</v>
       </c>
       <c r="AH2">
-        <v>0.1000719942404607</v>
+        <v>0.07952069716775599</v>
       </c>
       <c r="AI2">
-        <v>0.115929941618015</v>
+        <v>0.107669616519174</v>
       </c>
       <c r="AJ2">
-        <v>-0.2242899118511263</v>
+        <v>-0.2640239341810023</v>
       </c>
       <c r="AK2">
-        <v>-0.2755716004813478</v>
+        <v>-0.411901983663944</v>
       </c>
       <c r="AL2">
-        <v>0.019</v>
+        <v>0.029</v>
       </c>
       <c r="AM2">
-        <v>-0.013</v>
+        <v>0.021</v>
       </c>
       <c r="AN2">
-        <v>5.346153846153846</v>
+        <v>1.625835189309577</v>
       </c>
       <c r="AO2">
-        <v>-5.842105263157895</v>
+        <v>15.72413793103448</v>
       </c>
       <c r="AP2">
-        <v>-8.807692307692308</v>
+        <v>-3.930957683741648</v>
       </c>
       <c r="AQ2">
-        <v>8.538461538461538</v>
+        <v>21.71428571428572</v>
       </c>
     </row>
     <row r="3">
@@ -722,118 +727,8839 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0545</v>
+        <v>0.0579</v>
       </c>
       <c r="E3">
-        <v>-0.08</v>
+        <v>-0.153</v>
       </c>
       <c r="G3">
-        <v>0.08666666666666666</v>
+        <v>0.1277560975609756</v>
       </c>
       <c r="H3">
-        <v>-0.01809523809523809</v>
+        <v>0.02141463414634147</v>
       </c>
       <c r="I3">
-        <v>-0.006607142857142857</v>
+        <v>0.02224390243902439</v>
       </c>
       <c r="J3">
-        <v>-0.006267523364485981</v>
+        <v>0.02090735894483409</v>
       </c>
       <c r="K3">
-        <v>0.203</v>
+        <v>0.656</v>
       </c>
       <c r="L3">
-        <v>0.01208333333333333</v>
+        <v>0.032</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.7335900000000001</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.04340769230769231</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>1.11827743902439</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>0.7335900000000001</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.04340769230769231</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>1.11827743902439</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>3.68</v>
+        <v>4.99</v>
       </c>
       <c r="V3">
-        <v>0.2944</v>
+        <v>0.2952662721893491</v>
       </c>
       <c r="W3">
-        <v>0.01828828828828829</v>
+        <v>0.06188679245283019</v>
       </c>
       <c r="X3">
-        <v>0.1071701218284855</v>
+        <v>0.0777626907905615</v>
       </c>
       <c r="Y3">
-        <v>-0.08888183354019719</v>
+        <v>-0.01587589833773131</v>
       </c>
       <c r="Z3">
-        <v>2.317241379310345</v>
+        <v>2.46690734055355</v>
       </c>
       <c r="AA3">
-        <v>-0.01452336448598131</v>
+        <v>0.05157651725259912</v>
       </c>
       <c r="AB3">
-        <v>0.09998650215661176</v>
+        <v>0.0734749409918339</v>
       </c>
       <c r="AC3">
-        <v>-0.1145098666425931</v>
+        <v>-0.02189842373923477</v>
       </c>
       <c r="AD3">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="AG3">
-        <v>-2.29</v>
+        <v>-3.53</v>
       </c>
       <c r="AH3">
-        <v>0.1000719942404607</v>
+        <v>0.07952069716775599</v>
       </c>
       <c r="AI3">
-        <v>0.115929941618015</v>
+        <v>0.107669616519174</v>
       </c>
       <c r="AJ3">
-        <v>-0.2242899118511263</v>
+        <v>-0.2640239341810023</v>
       </c>
       <c r="AK3">
-        <v>-0.2755716004813478</v>
+        <v>-0.411901983663944</v>
       </c>
       <c r="AL3">
-        <v>0.019</v>
+        <v>0.029</v>
       </c>
       <c r="AM3">
-        <v>-0.013</v>
+        <v>0.021</v>
       </c>
       <c r="AN3">
-        <v>5.346153846153846</v>
+        <v>1.625835189309577</v>
       </c>
       <c r="AO3">
-        <v>-5.842105263157895</v>
+        <v>15.72413793103448</v>
       </c>
       <c r="AP3">
-        <v>-8.807692307692308</v>
+        <v>-3.930957683741648</v>
       </c>
       <c r="AQ3">
-        <v>8.538461538461538</v>
+        <v>21.71428571428572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SAF Tehnika A/S (RISE:SAF1R)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RISE:SAF1R</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Telecom. Equipment</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.079520697167756</v>
+      </c>
+      <c r="F2">
+        <v>0.25</v>
+      </c>
+      <c r="G2">
+        <v>16.9</v>
+      </c>
+      <c r="H2">
+        <v>14.2233872182879</v>
+      </c>
+      <c r="I2">
+        <v>13.37</v>
+      </c>
+      <c r="J2">
+        <v>13.8233872182879</v>
+      </c>
+      <c r="K2">
+        <v>1.46</v>
+      </c>
+      <c r="L2">
+        <v>4.59</v>
+      </c>
+      <c r="M2">
+        <v>0.0734749409918339</v>
+      </c>
+      <c r="N2">
+        <v>0.0713700952314847</v>
+      </c>
+      <c r="O2">
+        <v>0.0238427686640965</v>
+      </c>
+      <c r="P2">
+        <v>0.01424</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0777626907905615</v>
+      </c>
+      <c r="T2">
+        <v>0.09041346030864621</v>
+      </c>
+      <c r="U2">
+        <v>1.16392410934846</v>
+      </c>
+      <c r="V2">
+        <v>1.37899797620762</v>
+      </c>
+      <c r="W2">
+        <v>10.88100658490612</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>16.9</v>
+      </c>
+      <c r="AB2">
+        <v>0.05882057965865632</v>
+      </c>
+      <c r="AC2">
+        <v>0.02980346083012063</v>
+      </c>
+      <c r="AD2">
+        <v>0.2</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.898</v>
+      </c>
+      <c r="AH2">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>0.4489999999999998</v>
+      </c>
+      <c r="AJ2">
+        <v>1.46</v>
+      </c>
+      <c r="AK2">
+        <v>1.46</v>
+      </c>
+      <c r="AL2">
+        <v>0.029</v>
+      </c>
+      <c r="AM2">
+        <v>1.46</v>
+      </c>
+      <c r="AN2">
+        <v>4.99</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07333694234893122</v>
+      </c>
+      <c r="C2">
+        <v>18.38881214792479</v>
+      </c>
+      <c r="D2">
+        <v>13.39881214792479</v>
+      </c>
+      <c r="E2">
+        <v>-1.46</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>4.99</v>
+      </c>
+      <c r="H2">
+        <v>16.9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.898</v>
+      </c>
+      <c r="K2">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L2">
+        <v>0.889</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.889</v>
+      </c>
+      <c r="O2">
+        <v>0.1778</v>
+      </c>
+      <c r="P2">
+        <v>0.7112000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.7202000000000001</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.07333694234893122</v>
+      </c>
+      <c r="T2">
+        <v>1.08868261279549</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.2</v>
+      </c>
+      <c r="W2">
+        <v>0.01296</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.07324546846423335</v>
+      </c>
+      <c r="C3">
+        <v>18.22437912608515</v>
+      </c>
+      <c r="D3">
+        <v>13.41797912608515</v>
+      </c>
+      <c r="E3">
+        <v>-1.2764</v>
+      </c>
+      <c r="F3">
+        <v>0.1836</v>
+      </c>
+      <c r="G3">
+        <v>4.99</v>
+      </c>
+      <c r="H3">
+        <v>16.9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.898</v>
+      </c>
+      <c r="K3">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L3">
+        <v>0.889</v>
+      </c>
+      <c r="M3">
+        <v>0.002974319999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.88602568</v>
+      </c>
+      <c r="O3">
+        <v>0.177205136</v>
+      </c>
+      <c r="P3">
+        <v>0.7088205440000001</v>
+      </c>
+      <c r="Q3">
+        <v>0.7178205440000001</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.07385441259013471</v>
+      </c>
+      <c r="T3">
+        <v>1.097480048050403</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.2</v>
+      </c>
+      <c r="W3">
+        <v>0.01296</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>298.8918475483472</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.07315399457953549</v>
+      </c>
+      <c r="C4">
+        <v>18.06000101946143</v>
+      </c>
+      <c r="D4">
+        <v>13.43720101946144</v>
+      </c>
+      <c r="E4">
+        <v>-1.0928</v>
+      </c>
+      <c r="F4">
+        <v>0.3672</v>
+      </c>
+      <c r="G4">
+        <v>4.99</v>
+      </c>
+      <c r="H4">
+        <v>16.9</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.898</v>
+      </c>
+      <c r="K4">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L4">
+        <v>0.889</v>
+      </c>
+      <c r="M4">
+        <v>0.005948639999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.8830513600000001</v>
+      </c>
+      <c r="O4">
+        <v>0.176610272</v>
+      </c>
+      <c r="P4">
+        <v>0.7064410880000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.7154410880000001</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.0743824434485056</v>
+      </c>
+      <c r="T4">
+        <v>1.106457022800314</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.2</v>
+      </c>
+      <c r="W4">
+        <v>0.01296</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>149.4459237741736</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.07306252069483762</v>
+      </c>
+      <c r="C5">
+        <v>17.89567806439821</v>
+      </c>
+      <c r="D5">
+        <v>13.4564780643982</v>
+      </c>
+      <c r="E5">
+        <v>-0.9092</v>
+      </c>
+      <c r="F5">
+        <v>0.5508</v>
+      </c>
+      <c r="G5">
+        <v>4.99</v>
+      </c>
+      <c r="H5">
+        <v>16.9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.898</v>
+      </c>
+      <c r="K5">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.889</v>
+      </c>
+      <c r="M5">
+        <v>0.008922959999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.88007704</v>
+      </c>
+      <c r="O5">
+        <v>0.176015408</v>
+      </c>
+      <c r="P5">
+        <v>0.7040616319999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.7130616319999999</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.07492136154106972</v>
+      </c>
+      <c r="T5">
+        <v>1.11561908981311</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.2</v>
+      </c>
+      <c r="W5">
+        <v>0.01296</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>99.63061584944907</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.07297104681013979</v>
+      </c>
+      <c r="C6">
+        <v>17.7314104985982</v>
+      </c>
+      <c r="D6">
+        <v>13.4758104985982</v>
+      </c>
+      <c r="E6">
+        <v>-0.7256</v>
+      </c>
+      <c r="F6">
+        <v>0.7343999999999999</v>
+      </c>
+      <c r="G6">
+        <v>4.99</v>
+      </c>
+      <c r="H6">
+        <v>16.9</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.898</v>
+      </c>
+      <c r="K6">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.889</v>
+      </c>
+      <c r="M6">
+        <v>0.01189728</v>
+      </c>
+      <c r="N6">
+        <v>0.87710272</v>
+      </c>
+      <c r="O6">
+        <v>0.175420544</v>
+      </c>
+      <c r="P6">
+        <v>0.701682176</v>
+      </c>
+      <c r="Q6">
+        <v>0.7106821760000001</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.07547150709389561</v>
+      </c>
+      <c r="T6">
+        <v>1.124972033222007</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.2</v>
+      </c>
+      <c r="W6">
+        <v>0.01296</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>74.72296188708681</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07287957292544189</v>
+      </c>
+      <c r="C7">
+        <v>17.56719856113214</v>
+      </c>
+      <c r="D7">
+        <v>13.49519856113213</v>
+      </c>
+      <c r="E7">
+        <v>-0.5419999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.918</v>
+      </c>
+      <c r="G7">
+        <v>4.99</v>
+      </c>
+      <c r="H7">
+        <v>16.9</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.898</v>
+      </c>
+      <c r="K7">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.889</v>
+      </c>
+      <c r="M7">
+        <v>0.0148716</v>
+      </c>
+      <c r="N7">
+        <v>0.8741284</v>
+      </c>
+      <c r="O7">
+        <v>0.17482568</v>
+      </c>
+      <c r="P7">
+        <v>0.69930272</v>
+      </c>
+      <c r="Q7">
+        <v>0.7083027200000001</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.0760332346583599</v>
+      </c>
+      <c r="T7">
+        <v>1.134521880702668</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.2</v>
+      </c>
+      <c r="W7">
+        <v>0.01296</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>59.77836950966944</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.07278809904074406</v>
+      </c>
+      <c r="C8">
+        <v>17.40304249244851</v>
+      </c>
+      <c r="D8">
+        <v>13.51464249244851</v>
+      </c>
+      <c r="E8">
+        <v>-0.3584000000000001</v>
+      </c>
+      <c r="F8">
+        <v>1.1016</v>
+      </c>
+      <c r="G8">
+        <v>4.99</v>
+      </c>
+      <c r="H8">
+        <v>16.9</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.898</v>
+      </c>
+      <c r="K8">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.889</v>
+      </c>
+      <c r="M8">
+        <v>0.01784592</v>
+      </c>
+      <c r="N8">
+        <v>0.8711540800000001</v>
+      </c>
+      <c r="O8">
+        <v>0.174230816</v>
+      </c>
+      <c r="P8">
+        <v>0.696923264</v>
+      </c>
+      <c r="Q8">
+        <v>0.7059232640000001</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.07660691387313197</v>
+      </c>
+      <c r="T8">
+        <v>1.1442749164276</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.2</v>
+      </c>
+      <c r="W8">
+        <v>0.01296</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>49.81530792472454</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.07269662515604618</v>
+      </c>
+      <c r="C9">
+        <v>17.23894253438362</v>
+      </c>
+      <c r="D9">
+        <v>13.53414253438362</v>
+      </c>
+      <c r="E9">
+        <v>-0.1747999999999998</v>
+      </c>
+      <c r="F9">
+        <v>1.2852</v>
+      </c>
+      <c r="G9">
+        <v>4.99</v>
+      </c>
+      <c r="H9">
+        <v>16.9</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.898</v>
+      </c>
+      <c r="K9">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.889</v>
+      </c>
+      <c r="M9">
+        <v>0.02082024</v>
+      </c>
+      <c r="N9">
+        <v>0.86817976</v>
+      </c>
+      <c r="O9">
+        <v>0.173635952</v>
+      </c>
+      <c r="P9">
+        <v>0.6945438079999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.7035438079999999</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.07719293027531848</v>
+      </c>
+      <c r="T9">
+        <v>1.154237694856294</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.2</v>
+      </c>
+      <c r="W9">
+        <v>0.01296</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>42.69883536404959</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.07260515127134833</v>
+      </c>
+      <c r="C10">
+        <v>17.07489893017151</v>
+      </c>
+      <c r="D10">
+        <v>13.5536989301715</v>
+      </c>
+      <c r="E10">
+        <v>0.008799999999999919</v>
+      </c>
+      <c r="F10">
+        <v>1.4688</v>
+      </c>
+      <c r="G10">
+        <v>4.99</v>
+      </c>
+      <c r="H10">
+        <v>16.9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.898</v>
+      </c>
+      <c r="K10">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.889</v>
+      </c>
+      <c r="M10">
+        <v>0.02379456</v>
+      </c>
+      <c r="N10">
+        <v>0.86520544</v>
+      </c>
+      <c r="O10">
+        <v>0.173041088</v>
+      </c>
+      <c r="P10">
+        <v>0.692164352</v>
+      </c>
+      <c r="Q10">
+        <v>0.701164352</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.07779168616450904</v>
+      </c>
+      <c r="T10">
+        <v>1.164417055424741</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.2</v>
+      </c>
+      <c r="W10">
+        <v>0.01296</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>37.36148094354341</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.07251367738665046</v>
+      </c>
+      <c r="C11">
+        <v>16.91091192445413</v>
+      </c>
+      <c r="D11">
+        <v>13.57331192445413</v>
+      </c>
+      <c r="E11">
+        <v>0.1923999999999999</v>
+      </c>
+      <c r="F11">
+        <v>1.6524</v>
+      </c>
+      <c r="G11">
+        <v>4.99</v>
+      </c>
+      <c r="H11">
+        <v>16.9</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.898</v>
+      </c>
+      <c r="K11">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.889</v>
+      </c>
+      <c r="M11">
+        <v>0.02676887999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.86223112</v>
+      </c>
+      <c r="O11">
+        <v>0.172446224</v>
+      </c>
+      <c r="P11">
+        <v>0.689784896</v>
+      </c>
+      <c r="Q11">
+        <v>0.698784896</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.07840360152379171</v>
+      </c>
+      <c r="T11">
+        <v>1.174820138203485</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.2</v>
+      </c>
+      <c r="W11">
+        <v>0.01296</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>33.21020528314969</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.07242220350195262</v>
+      </c>
+      <c r="C12">
+        <v>16.74698176329154</v>
+      </c>
+      <c r="D12">
+        <v>13.59298176329153</v>
+      </c>
+      <c r="E12">
+        <v>0.3760000000000001</v>
+      </c>
+      <c r="F12">
+        <v>1.836</v>
+      </c>
+      <c r="G12">
+        <v>4.99</v>
+      </c>
+      <c r="H12">
+        <v>16.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.898</v>
+      </c>
+      <c r="K12">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L12">
+        <v>0.889</v>
+      </c>
+      <c r="M12">
+        <v>0.0297432</v>
+      </c>
+      <c r="N12">
+        <v>0.8592568</v>
+      </c>
+      <c r="O12">
+        <v>0.17185136</v>
+      </c>
+      <c r="P12">
+        <v>0.68740544</v>
+      </c>
+      <c r="Q12">
+        <v>0.69640544</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.07902911500216957</v>
+      </c>
+      <c r="T12">
+        <v>1.185454400599534</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.2</v>
+      </c>
+      <c r="W12">
+        <v>0.01296</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>29.88918475483472</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07233072961725473</v>
+      </c>
+      <c r="C13">
+        <v>16.58310869417218</v>
+      </c>
+      <c r="D13">
+        <v>13.61270869417218</v>
+      </c>
+      <c r="E13">
+        <v>0.5596000000000001</v>
+      </c>
+      <c r="F13">
+        <v>2.0196</v>
+      </c>
+      <c r="G13">
+        <v>4.99</v>
+      </c>
+      <c r="H13">
+        <v>16.9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.898</v>
+      </c>
+      <c r="K13">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L13">
+        <v>0.889</v>
+      </c>
+      <c r="M13">
+        <v>0.03271752</v>
+      </c>
+      <c r="N13">
+        <v>0.85628248</v>
+      </c>
+      <c r="O13">
+        <v>0.171256496</v>
+      </c>
+      <c r="P13">
+        <v>0.6850259839999999</v>
+      </c>
+      <c r="Q13">
+        <v>0.6940259839999999</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07966868496320756</v>
+      </c>
+      <c r="T13">
+        <v>1.196327635184258</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.2</v>
+      </c>
+      <c r="W13">
+        <v>0.01296</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>27.17198614075883</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07223925573255689</v>
+      </c>
+      <c r="C14">
+        <v>16.41929296602323</v>
+      </c>
+      <c r="D14">
+        <v>13.63249296602323</v>
+      </c>
+      <c r="E14">
+        <v>0.7431999999999999</v>
+      </c>
+      <c r="F14">
+        <v>2.2032</v>
+      </c>
+      <c r="G14">
+        <v>4.99</v>
+      </c>
+      <c r="H14">
+        <v>16.9</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.898</v>
+      </c>
+      <c r="K14">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L14">
+        <v>0.889</v>
+      </c>
+      <c r="M14">
+        <v>0.03569184</v>
+      </c>
+      <c r="N14">
+        <v>0.85330816</v>
+      </c>
+      <c r="O14">
+        <v>0.170661632</v>
+      </c>
+      <c r="P14">
+        <v>0.682646528</v>
+      </c>
+      <c r="Q14">
+        <v>0.691646528</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.08032279060517827</v>
+      </c>
+      <c r="T14">
+        <v>1.207447988736816</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.2</v>
+      </c>
+      <c r="W14">
+        <v>0.01296</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>24.90765396236227</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07214778184785901</v>
+      </c>
+      <c r="C15">
+        <v>16.25553482922116</v>
+      </c>
+      <c r="D15">
+        <v>13.65233482922116</v>
+      </c>
+      <c r="E15">
+        <v>0.9268000000000001</v>
+      </c>
+      <c r="F15">
+        <v>2.3868</v>
+      </c>
+      <c r="G15">
+        <v>4.99</v>
+      </c>
+      <c r="H15">
+        <v>16.9</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.898</v>
+      </c>
+      <c r="K15">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L15">
+        <v>0.889</v>
+      </c>
+      <c r="M15">
+        <v>0.03866616</v>
+      </c>
+      <c r="N15">
+        <v>0.85033384</v>
+      </c>
+      <c r="O15">
+        <v>0.170066768</v>
+      </c>
+      <c r="P15">
+        <v>0.680267072</v>
+      </c>
+      <c r="Q15">
+        <v>0.689267072</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.08099193315845864</v>
+      </c>
+      <c r="T15">
+        <v>1.218823982600928</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.2</v>
+      </c>
+      <c r="W15">
+        <v>0.01296</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>22.99168058064209</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07205630796316113</v>
+      </c>
+      <c r="C16">
+        <v>16.0918345356022</v>
+      </c>
+      <c r="D16">
+        <v>13.6722345356022</v>
+      </c>
+      <c r="E16">
+        <v>1.1104</v>
+      </c>
+      <c r="F16">
+        <v>2.5704</v>
+      </c>
+      <c r="G16">
+        <v>4.99</v>
+      </c>
+      <c r="H16">
+        <v>16.9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.898</v>
+      </c>
+      <c r="K16">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L16">
+        <v>0.889</v>
+      </c>
+      <c r="M16">
+        <v>0.04164048</v>
+      </c>
+      <c r="N16">
+        <v>0.84735952</v>
+      </c>
+      <c r="O16">
+        <v>0.169471904</v>
+      </c>
+      <c r="P16">
+        <v>0.677887616</v>
+      </c>
+      <c r="Q16">
+        <v>0.686887616</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.08167663716646645</v>
+      </c>
+      <c r="T16">
+        <v>1.230464534461879</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.2</v>
+      </c>
+      <c r="W16">
+        <v>0.01296</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>21.3494176820248</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07196483407846327</v>
+      </c>
+      <c r="C17">
+        <v>15.92819233847304</v>
+      </c>
+      <c r="D17">
+        <v>13.69219233847304</v>
+      </c>
+      <c r="E17">
+        <v>1.294</v>
+      </c>
+      <c r="F17">
+        <v>2.754</v>
+      </c>
+      <c r="G17">
+        <v>4.99</v>
+      </c>
+      <c r="H17">
+        <v>16.9</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.898</v>
+      </c>
+      <c r="K17">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L17">
+        <v>0.889</v>
+      </c>
+      <c r="M17">
+        <v>0.0446148</v>
+      </c>
+      <c r="N17">
+        <v>0.8443852000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.16887704</v>
+      </c>
+      <c r="P17">
+        <v>0.67550816</v>
+      </c>
+      <c r="Q17">
+        <v>0.68450816</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.08237745185701562</v>
+      </c>
+      <c r="T17">
+        <v>1.242378981660736</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.2</v>
+      </c>
+      <c r="W17">
+        <v>0.01296</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>19.92612316988982</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07187336019376542</v>
+      </c>
+      <c r="C18">
+        <v>15.76460849262158</v>
+      </c>
+      <c r="D18">
+        <v>13.71220849262158</v>
+      </c>
+      <c r="E18">
+        <v>1.4776</v>
+      </c>
+      <c r="F18">
+        <v>2.9376</v>
+      </c>
+      <c r="G18">
+        <v>4.99</v>
+      </c>
+      <c r="H18">
+        <v>16.9</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.898</v>
+      </c>
+      <c r="K18">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L18">
+        <v>0.889</v>
+      </c>
+      <c r="M18">
+        <v>0.04758911999999999</v>
+      </c>
+      <c r="N18">
+        <v>0.84141088</v>
+      </c>
+      <c r="O18">
+        <v>0.168282176</v>
+      </c>
+      <c r="P18">
+        <v>0.673128704</v>
+      </c>
+      <c r="Q18">
+        <v>0.682128704</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.0830949526116255</v>
+      </c>
+      <c r="T18">
+        <v>1.25457710617385</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.2</v>
+      </c>
+      <c r="W18">
+        <v>0.01296</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>18.6807404717717</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.07178188630906755</v>
+      </c>
+      <c r="C19">
+        <v>15.60108325432776</v>
+      </c>
+      <c r="D19">
+        <v>13.73228325432776</v>
+      </c>
+      <c r="E19">
+        <v>1.6612</v>
+      </c>
+      <c r="F19">
+        <v>3.1212</v>
+      </c>
+      <c r="G19">
+        <v>4.99</v>
+      </c>
+      <c r="H19">
+        <v>16.9</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.898</v>
+      </c>
+      <c r="K19">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L19">
+        <v>0.889</v>
+      </c>
+      <c r="M19">
+        <v>0.05056343999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.83843656</v>
+      </c>
+      <c r="O19">
+        <v>0.167687312</v>
+      </c>
+      <c r="P19">
+        <v>0.670749248</v>
+      </c>
+      <c r="Q19">
+        <v>0.679749248</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.08382974254104525</v>
+      </c>
+      <c r="T19">
+        <v>1.267069161398124</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.2</v>
+      </c>
+      <c r="W19">
+        <v>0.01296</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>17.5818733851969</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.0716904124243697</v>
+      </c>
+      <c r="C20">
+        <v>15.4376168813745</v>
+      </c>
+      <c r="D20">
+        <v>13.7524168813745</v>
+      </c>
+      <c r="E20">
+        <v>1.8448</v>
+      </c>
+      <c r="F20">
+        <v>3.3048</v>
+      </c>
+      <c r="G20">
+        <v>4.99</v>
+      </c>
+      <c r="H20">
+        <v>16.9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.898</v>
+      </c>
+      <c r="K20">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L20">
+        <v>0.889</v>
+      </c>
+      <c r="M20">
+        <v>0.05353775999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.83546224</v>
+      </c>
+      <c r="O20">
+        <v>0.167092448</v>
+      </c>
+      <c r="P20">
+        <v>0.668369792</v>
+      </c>
+      <c r="Q20">
+        <v>0.677369792</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.08458245417606061</v>
+      </c>
+      <c r="T20">
+        <v>1.279865900896161</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.2</v>
+      </c>
+      <c r="W20">
+        <v>0.01296</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>16.60510264157485</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.07159893853967185</v>
+      </c>
+      <c r="C21">
+        <v>15.27420963305874</v>
+      </c>
+      <c r="D21">
+        <v>13.77260963305874</v>
+      </c>
+      <c r="E21">
+        <v>2.0284</v>
+      </c>
+      <c r="F21">
+        <v>3.4884</v>
+      </c>
+      <c r="G21">
+        <v>4.99</v>
+      </c>
+      <c r="H21">
+        <v>16.9</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.898</v>
+      </c>
+      <c r="K21">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L21">
+        <v>0.889</v>
+      </c>
+      <c r="M21">
+        <v>0.05651208</v>
+      </c>
+      <c r="N21">
+        <v>0.83248792</v>
+      </c>
+      <c r="O21">
+        <v>0.166497584</v>
+      </c>
+      <c r="P21">
+        <v>0.665990336</v>
+      </c>
+      <c r="Q21">
+        <v>0.674990336</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.08535375128354548</v>
+      </c>
+      <c r="T21">
+        <v>1.292978609270693</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.2</v>
+      </c>
+      <c r="W21">
+        <v>0.01296</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>15.73114987096564</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.07150746465497397</v>
+      </c>
+      <c r="C22">
+        <v>15.11086177020259</v>
+      </c>
+      <c r="D22">
+        <v>13.79286177020259</v>
+      </c>
+      <c r="E22">
+        <v>2.212</v>
+      </c>
+      <c r="F22">
+        <v>3.672</v>
+      </c>
+      <c r="G22">
+        <v>4.99</v>
+      </c>
+      <c r="H22">
+        <v>16.9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.898</v>
+      </c>
+      <c r="K22">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L22">
+        <v>0.889</v>
+      </c>
+      <c r="M22">
+        <v>0.0594864</v>
+      </c>
+      <c r="N22">
+        <v>0.8295136</v>
+      </c>
+      <c r="O22">
+        <v>0.16590272</v>
+      </c>
+      <c r="P22">
+        <v>0.66361088</v>
+      </c>
+      <c r="Q22">
+        <v>0.67261088</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.08614433081871746</v>
+      </c>
+      <c r="T22">
+        <v>1.306419135354588</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.2</v>
+      </c>
+      <c r="W22">
+        <v>0.01296</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>14.94459237741736</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.07141599077027612</v>
+      </c>
+      <c r="C23">
+        <v>14.94757355516448</v>
+      </c>
+      <c r="D23">
+        <v>13.81317355516448</v>
+      </c>
+      <c r="E23">
+        <v>2.3956</v>
+      </c>
+      <c r="F23">
+        <v>3.8556</v>
+      </c>
+      <c r="G23">
+        <v>4.99</v>
+      </c>
+      <c r="H23">
+        <v>16.9</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.898</v>
+      </c>
+      <c r="K23">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L23">
+        <v>0.889</v>
+      </c>
+      <c r="M23">
+        <v>0.06246072</v>
+      </c>
+      <c r="N23">
+        <v>0.82653928</v>
+      </c>
+      <c r="O23">
+        <v>0.165307856</v>
+      </c>
+      <c r="P23">
+        <v>0.661231424</v>
+      </c>
+      <c r="Q23">
+        <v>0.670231424</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.08695492502566597</v>
+      </c>
+      <c r="T23">
+        <v>1.32019992792162</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.2</v>
+      </c>
+      <c r="W23">
+        <v>0.01296</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>14.23294512134987</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.07160611688557826</v>
+      </c>
+      <c r="C24">
+        <v>14.72182287784237</v>
+      </c>
+      <c r="D24">
+        <v>13.77102287784237</v>
+      </c>
+      <c r="E24">
+        <v>2.5792</v>
+      </c>
+      <c r="F24">
+        <v>4.0392</v>
+      </c>
+      <c r="G24">
+        <v>4.99</v>
+      </c>
+      <c r="H24">
+        <v>16.9</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.898</v>
+      </c>
+      <c r="K24">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L24">
+        <v>0.889</v>
+      </c>
+      <c r="M24">
+        <v>0.07189776</v>
+      </c>
+      <c r="N24">
+        <v>0.81710224</v>
+      </c>
+      <c r="O24">
+        <v>0.163420448</v>
+      </c>
+      <c r="P24">
+        <v>0.653681792</v>
+      </c>
+      <c r="Q24">
+        <v>0.662681792</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.08778630369945929</v>
+      </c>
+      <c r="T24">
+        <v>1.334334074144216</v>
+      </c>
+      <c r="U24">
+        <v>0.0178</v>
+      </c>
+      <c r="V24">
+        <v>0.2</v>
+      </c>
+      <c r="W24">
+        <v>0.01424</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>12.36478021012059</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.0715274430008804</v>
+      </c>
+      <c r="C25">
+        <v>14.55563352198611</v>
+      </c>
+      <c r="D25">
+        <v>13.78843352198611</v>
+      </c>
+      <c r="E25">
+        <v>2.7628</v>
+      </c>
+      <c r="F25">
+        <v>4.2228</v>
+      </c>
+      <c r="G25">
+        <v>4.99</v>
+      </c>
+      <c r="H25">
+        <v>16.9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.898</v>
+      </c>
+      <c r="K25">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L25">
+        <v>0.889</v>
+      </c>
+      <c r="M25">
+        <v>0.07516584000000001</v>
+      </c>
+      <c r="N25">
+        <v>0.81383416</v>
+      </c>
+      <c r="O25">
+        <v>0.162766832</v>
+      </c>
+      <c r="P25">
+        <v>0.651067328</v>
+      </c>
+      <c r="Q25">
+        <v>0.660067328</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08863927662451999</v>
+      </c>
+      <c r="T25">
+        <v>1.348835341047919</v>
+      </c>
+      <c r="U25">
+        <v>0.0178</v>
+      </c>
+      <c r="V25">
+        <v>0.2</v>
+      </c>
+      <c r="W25">
+        <v>0.01424</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>11.82718107055013</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.07144876911618253</v>
+      </c>
+      <c r="C26">
+        <v>14.38948824626303</v>
+      </c>
+      <c r="D26">
+        <v>13.80588824626303</v>
+      </c>
+      <c r="E26">
+        <v>2.9464</v>
+      </c>
+      <c r="F26">
+        <v>4.4064</v>
+      </c>
+      <c r="G26">
+        <v>4.99</v>
+      </c>
+      <c r="H26">
+        <v>16.9</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.898</v>
+      </c>
+      <c r="K26">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L26">
+        <v>0.889</v>
+      </c>
+      <c r="M26">
+        <v>0.07843391999999999</v>
+      </c>
+      <c r="N26">
+        <v>0.8105660800000001</v>
+      </c>
+      <c r="O26">
+        <v>0.162113216</v>
+      </c>
+      <c r="P26">
+        <v>0.648452864</v>
+      </c>
+      <c r="Q26">
+        <v>0.657452864</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.08951469620550331</v>
+      </c>
+      <c r="T26">
+        <v>1.363718220238561</v>
+      </c>
+      <c r="U26">
+        <v>0.0178</v>
+      </c>
+      <c r="V26">
+        <v>0.2</v>
+      </c>
+      <c r="W26">
+        <v>0.01424</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>11.33438185927721</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.07137009523148466</v>
+      </c>
+      <c r="C27">
+        <v>14.22338721828792</v>
+      </c>
+      <c r="D27">
+        <v>13.82338721828792</v>
+      </c>
+      <c r="E27">
+        <v>3.13</v>
+      </c>
+      <c r="F27">
+        <v>4.59</v>
+      </c>
+      <c r="G27">
+        <v>4.99</v>
+      </c>
+      <c r="H27">
+        <v>16.9</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.898</v>
+      </c>
+      <c r="K27">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L27">
+        <v>0.889</v>
+      </c>
+      <c r="M27">
+        <v>0.081702</v>
+      </c>
+      <c r="N27">
+        <v>0.8072980000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.1614596</v>
+      </c>
+      <c r="P27">
+        <v>0.6458384</v>
+      </c>
+      <c r="Q27">
+        <v>0.6548384</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.09041346030864622</v>
+      </c>
+      <c r="T27">
+        <v>1.378997976207621</v>
+      </c>
+      <c r="U27">
+        <v>0.0178</v>
+      </c>
+      <c r="V27">
+        <v>0.2</v>
+      </c>
+      <c r="W27">
+        <v>0.01424</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>10.88100658490612</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.0717490213467868</v>
+      </c>
+      <c r="C28">
+        <v>13.95591012452442</v>
+      </c>
+      <c r="D28">
+        <v>13.73951012452442</v>
+      </c>
+      <c r="E28">
+        <v>3.3136</v>
+      </c>
+      <c r="F28">
+        <v>4.7736</v>
+      </c>
+      <c r="G28">
+        <v>4.99</v>
+      </c>
+      <c r="H28">
+        <v>16.9</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.898</v>
+      </c>
+      <c r="K28">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L28">
+        <v>0.889</v>
+      </c>
+      <c r="M28">
+        <v>0.09547199999999999</v>
+      </c>
+      <c r="N28">
+        <v>0.793528</v>
+      </c>
+      <c r="O28">
+        <v>0.1587056</v>
+      </c>
+      <c r="P28">
+        <v>0.6348224</v>
+      </c>
+      <c r="Q28">
+        <v>0.6438224</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.09133651533349568</v>
+      </c>
+      <c r="T28">
+        <v>1.394690698554222</v>
+      </c>
+      <c r="U28">
+        <v>0.02</v>
+      </c>
+      <c r="V28">
+        <v>0.2</v>
+      </c>
+      <c r="W28">
+        <v>0.016</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>9.311630635160048</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.07168794746208894</v>
+      </c>
+      <c r="C29">
+        <v>13.7857602425566</v>
+      </c>
+      <c r="D29">
+        <v>13.7529602425566</v>
+      </c>
+      <c r="E29">
+        <v>3.4972</v>
+      </c>
+      <c r="F29">
+        <v>4.9572</v>
+      </c>
+      <c r="G29">
+        <v>4.99</v>
+      </c>
+      <c r="H29">
+        <v>16.9</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.898</v>
+      </c>
+      <c r="K29">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L29">
+        <v>0.889</v>
+      </c>
+      <c r="M29">
+        <v>0.099144</v>
+      </c>
+      <c r="N29">
+        <v>0.789856</v>
+      </c>
+      <c r="O29">
+        <v>0.1579712</v>
+      </c>
+      <c r="P29">
+        <v>0.6318848</v>
+      </c>
+      <c r="Q29">
+        <v>0.6408848</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.09228485953710813</v>
+      </c>
+      <c r="T29">
+        <v>1.410813358499361</v>
+      </c>
+      <c r="U29">
+        <v>0.02</v>
+      </c>
+      <c r="V29">
+        <v>0.2</v>
+      </c>
+      <c r="W29">
+        <v>0.016</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>8.966755426450415</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.07162687357739107</v>
+      </c>
+      <c r="C30">
+        <v>13.61563672003569</v>
+      </c>
+      <c r="D30">
+        <v>13.7664367200357</v>
+      </c>
+      <c r="E30">
+        <v>3.680800000000001</v>
+      </c>
+      <c r="F30">
+        <v>5.1408</v>
+      </c>
+      <c r="G30">
+        <v>4.99</v>
+      </c>
+      <c r="H30">
+        <v>16.9</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.898</v>
+      </c>
+      <c r="K30">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L30">
+        <v>0.889</v>
+      </c>
+      <c r="M30">
+        <v>0.102816</v>
+      </c>
+      <c r="N30">
+        <v>0.786184</v>
+      </c>
+      <c r="O30">
+        <v>0.1572368</v>
+      </c>
+      <c r="P30">
+        <v>0.6289472</v>
+      </c>
+      <c r="Q30">
+        <v>0.6379472</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.09325954663526538</v>
+      </c>
+      <c r="T30">
+        <v>1.427383870109643</v>
+      </c>
+      <c r="U30">
+        <v>0.02</v>
+      </c>
+      <c r="V30">
+        <v>0.2</v>
+      </c>
+      <c r="W30">
+        <v>0.016</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>8.646514161220043</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.07156579969269322</v>
+      </c>
+      <c r="C31">
+        <v>13.4455396345263</v>
+      </c>
+      <c r="D31">
+        <v>13.7799396345263</v>
+      </c>
+      <c r="E31">
+        <v>3.8644</v>
+      </c>
+      <c r="F31">
+        <v>5.3244</v>
+      </c>
+      <c r="G31">
+        <v>4.99</v>
+      </c>
+      <c r="H31">
+        <v>16.9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.898</v>
+      </c>
+      <c r="K31">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L31">
+        <v>0.889</v>
+      </c>
+      <c r="M31">
+        <v>0.106488</v>
+      </c>
+      <c r="N31">
+        <v>0.782512</v>
+      </c>
+      <c r="O31">
+        <v>0.1565024</v>
+      </c>
+      <c r="P31">
+        <v>0.6260095999999999</v>
+      </c>
+      <c r="Q31">
+        <v>0.6350096</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.09426168970801861</v>
+      </c>
+      <c r="T31">
+        <v>1.444421156694861</v>
+      </c>
+      <c r="U31">
+        <v>0.02</v>
+      </c>
+      <c r="V31">
+        <v>0.2</v>
+      </c>
+      <c r="W31">
+        <v>0.016</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>8.348358500488319</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.07150472580799536</v>
+      </c>
+      <c r="C32">
+        <v>13.27546906389764</v>
+      </c>
+      <c r="D32">
+        <v>13.79346906389764</v>
+      </c>
+      <c r="E32">
+        <v>4.048</v>
+      </c>
+      <c r="F32">
+        <v>5.508</v>
+      </c>
+      <c r="G32">
+        <v>4.99</v>
+      </c>
+      <c r="H32">
+        <v>16.9</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.898</v>
+      </c>
+      <c r="K32">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L32">
+        <v>0.889</v>
+      </c>
+      <c r="M32">
+        <v>0.11016</v>
+      </c>
+      <c r="N32">
+        <v>0.77884</v>
+      </c>
+      <c r="O32">
+        <v>0.155768</v>
+      </c>
+      <c r="P32">
+        <v>0.623072</v>
+      </c>
+      <c r="Q32">
+        <v>0.632072</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.09529246543999337</v>
+      </c>
+      <c r="T32">
+        <v>1.461945222896801</v>
+      </c>
+      <c r="U32">
+        <v>0.02</v>
+      </c>
+      <c r="V32">
+        <v>0.2</v>
+      </c>
+      <c r="W32">
+        <v>0.016</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>8.070079883805375</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.07171645192329748</v>
+      </c>
+      <c r="C33">
+        <v>13.04507951512566</v>
+      </c>
+      <c r="D33">
+        <v>13.74667951512566</v>
+      </c>
+      <c r="E33">
+        <v>4.2316</v>
+      </c>
+      <c r="F33">
+        <v>5.6916</v>
+      </c>
+      <c r="G33">
+        <v>4.99</v>
+      </c>
+      <c r="H33">
+        <v>16.9</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.898</v>
+      </c>
+      <c r="K33">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L33">
+        <v>0.889</v>
+      </c>
+      <c r="M33">
+        <v>0.12009276</v>
+      </c>
+      <c r="N33">
+        <v>0.76890724</v>
+      </c>
+      <c r="O33">
+        <v>0.153781448</v>
+      </c>
+      <c r="P33">
+        <v>0.6151257919999999</v>
+      </c>
+      <c r="Q33">
+        <v>0.624125792</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.09635311872941665</v>
+      </c>
+      <c r="T33">
+        <v>1.479977233046623</v>
+      </c>
+      <c r="U33">
+        <v>0.0211</v>
+      </c>
+      <c r="V33">
+        <v>0.2</v>
+      </c>
+      <c r="W33">
+        <v>0.01688</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>7.402611114941483</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.07166417803859963</v>
+      </c>
+      <c r="C34">
+        <v>12.87300203273998</v>
+      </c>
+      <c r="D34">
+        <v>13.75820203273997</v>
+      </c>
+      <c r="E34">
+        <v>4.4152</v>
+      </c>
+      <c r="F34">
+        <v>5.8752</v>
+      </c>
+      <c r="G34">
+        <v>4.99</v>
+      </c>
+      <c r="H34">
+        <v>16.9</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.898</v>
+      </c>
+      <c r="K34">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L34">
+        <v>0.889</v>
+      </c>
+      <c r="M34">
+        <v>0.12396672</v>
+      </c>
+      <c r="N34">
+        <v>0.76503328</v>
+      </c>
+      <c r="O34">
+        <v>0.153006656</v>
+      </c>
+      <c r="P34">
+        <v>0.6120266240000001</v>
+      </c>
+      <c r="Q34">
+        <v>0.6210266240000001</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.09744496770382298</v>
+      </c>
+      <c r="T34">
+        <v>1.498539596436145</v>
+      </c>
+      <c r="U34">
+        <v>0.0211</v>
+      </c>
+      <c r="V34">
+        <v>0.2</v>
+      </c>
+      <c r="W34">
+        <v>0.01688</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>7.171279517599563</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.07161190415390176</v>
+      </c>
+      <c r="C35">
+        <v>12.70094388299275</v>
+      </c>
+      <c r="D35">
+        <v>13.76974388299275</v>
+      </c>
+      <c r="E35">
+        <v>4.5988</v>
+      </c>
+      <c r="F35">
+        <v>6.0588</v>
+      </c>
+      <c r="G35">
+        <v>4.99</v>
+      </c>
+      <c r="H35">
+        <v>16.9</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.898</v>
+      </c>
+      <c r="K35">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L35">
+        <v>0.889</v>
+      </c>
+      <c r="M35">
+        <v>0.12784068</v>
+      </c>
+      <c r="N35">
+        <v>0.76115932</v>
+      </c>
+      <c r="O35">
+        <v>0.152231864</v>
+      </c>
+      <c r="P35">
+        <v>0.608927456</v>
+      </c>
+      <c r="Q35">
+        <v>0.617927456</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.098569409184928</v>
+      </c>
+      <c r="T35">
+        <v>1.517656060225355</v>
+      </c>
+      <c r="U35">
+        <v>0.0211</v>
+      </c>
+      <c r="V35">
+        <v>0.2</v>
+      </c>
+      <c r="W35">
+        <v>0.01688</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>6.953968017066241</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.07155963026920388</v>
+      </c>
+      <c r="C36">
+        <v>12.52890511457968</v>
+      </c>
+      <c r="D36">
+        <v>13.78130511457968</v>
+      </c>
+      <c r="E36">
+        <v>4.7824</v>
+      </c>
+      <c r="F36">
+        <v>6.2424</v>
+      </c>
+      <c r="G36">
+        <v>4.99</v>
+      </c>
+      <c r="H36">
+        <v>16.9</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.898</v>
+      </c>
+      <c r="K36">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L36">
+        <v>0.889</v>
+      </c>
+      <c r="M36">
+        <v>0.13171464</v>
+      </c>
+      <c r="N36">
+        <v>0.75728536</v>
+      </c>
+      <c r="O36">
+        <v>0.151457072</v>
+      </c>
+      <c r="P36">
+        <v>0.605828288</v>
+      </c>
+      <c r="Q36">
+        <v>0.614828288</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09972792465030893</v>
+      </c>
+      <c r="T36">
+        <v>1.537351810796056</v>
+      </c>
+      <c r="U36">
+        <v>0.0211</v>
+      </c>
+      <c r="V36">
+        <v>0.2</v>
+      </c>
+      <c r="W36">
+        <v>0.01688</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>6.749439545976059</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.07150735638450602</v>
+      </c>
+      <c r="C37">
+        <v>12.35688577636014</v>
+      </c>
+      <c r="D37">
+        <v>13.79288577636014</v>
+      </c>
+      <c r="E37">
+        <v>4.966</v>
+      </c>
+      <c r="F37">
+        <v>6.426</v>
+      </c>
+      <c r="G37">
+        <v>4.99</v>
+      </c>
+      <c r="H37">
+        <v>16.9</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.898</v>
+      </c>
+      <c r="K37">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L37">
+        <v>0.889</v>
+      </c>
+      <c r="M37">
+        <v>0.1355886</v>
+      </c>
+      <c r="N37">
+        <v>0.7534114000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.15068228</v>
+      </c>
+      <c r="P37">
+        <v>0.60272912</v>
+      </c>
+      <c r="Q37">
+        <v>0.61172912</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1009220867453939</v>
+      </c>
+      <c r="T37">
+        <v>1.55765358446124</v>
+      </c>
+      <c r="U37">
+        <v>0.0211</v>
+      </c>
+      <c r="V37">
+        <v>0.2</v>
+      </c>
+      <c r="W37">
+        <v>0.01688</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>6.556598416091028</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.07188708249980817</v>
+      </c>
+      <c r="C38">
+        <v>12.0896020715848</v>
+      </c>
+      <c r="D38">
+        <v>13.7092020715848</v>
+      </c>
+      <c r="E38">
+        <v>5.1496</v>
+      </c>
+      <c r="F38">
+        <v>6.609599999999999</v>
+      </c>
+      <c r="G38">
+        <v>4.99</v>
+      </c>
+      <c r="H38">
+        <v>16.9</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.898</v>
+      </c>
+      <c r="K38">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L38">
+        <v>0.889</v>
+      </c>
+      <c r="M38">
+        <v>0.14937696</v>
+      </c>
+      <c r="N38">
+        <v>0.73962304</v>
+      </c>
+      <c r="O38">
+        <v>0.147924608</v>
+      </c>
+      <c r="P38">
+        <v>0.5916984320000001</v>
+      </c>
+      <c r="Q38">
+        <v>0.6006984320000001</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1021535664059503</v>
+      </c>
+      <c r="T38">
+        <v>1.578589788553461</v>
+      </c>
+      <c r="U38">
+        <v>0.0226</v>
+      </c>
+      <c r="V38">
+        <v>0.2</v>
+      </c>
+      <c r="W38">
+        <v>0.01808</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>5.951386344989214</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.07184680861511032</v>
+      </c>
+      <c r="C39">
+        <v>11.91482942562181</v>
+      </c>
+      <c r="D39">
+        <v>13.71802942562181</v>
+      </c>
+      <c r="E39">
+        <v>5.3332</v>
+      </c>
+      <c r="F39">
+        <v>6.7932</v>
+      </c>
+      <c r="G39">
+        <v>4.99</v>
+      </c>
+      <c r="H39">
+        <v>16.9</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.898</v>
+      </c>
+      <c r="K39">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L39">
+        <v>0.889</v>
+      </c>
+      <c r="M39">
+        <v>0.15352632</v>
+      </c>
+      <c r="N39">
+        <v>0.73547368</v>
+      </c>
+      <c r="O39">
+        <v>0.147094736</v>
+      </c>
+      <c r="P39">
+        <v>0.588378944</v>
+      </c>
+      <c r="Q39">
+        <v>0.597378944</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1034241406589053</v>
+      </c>
+      <c r="T39">
+        <v>1.600190634045435</v>
+      </c>
+      <c r="U39">
+        <v>0.0226</v>
+      </c>
+      <c r="V39">
+        <v>0.2</v>
+      </c>
+      <c r="W39">
+        <v>0.01808</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>5.790538065394911</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.07180653473041244</v>
+      </c>
+      <c r="C40">
+        <v>11.74006815484832</v>
+      </c>
+      <c r="D40">
+        <v>13.72686815484832</v>
+      </c>
+      <c r="E40">
+        <v>5.5168</v>
+      </c>
+      <c r="F40">
+        <v>6.9768</v>
+      </c>
+      <c r="G40">
+        <v>4.99</v>
+      </c>
+      <c r="H40">
+        <v>16.9</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.898</v>
+      </c>
+      <c r="K40">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L40">
+        <v>0.889</v>
+      </c>
+      <c r="M40">
+        <v>0.15767568</v>
+      </c>
+      <c r="N40">
+        <v>0.73132432</v>
+      </c>
+      <c r="O40">
+        <v>0.146264864</v>
+      </c>
+      <c r="P40">
+        <v>0.585059456</v>
+      </c>
+      <c r="Q40">
+        <v>0.594059456</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1047357011780846</v>
+      </c>
+      <c r="T40">
+        <v>1.622488281004892</v>
+      </c>
+      <c r="U40">
+        <v>0.0226</v>
+      </c>
+      <c r="V40">
+        <v>0.2</v>
+      </c>
+      <c r="W40">
+        <v>0.01808</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>5.638155484726624</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.07176626084571458</v>
+      </c>
+      <c r="C41">
+        <v>11.56531828126611</v>
+      </c>
+      <c r="D41">
+        <v>13.73571828126611</v>
+      </c>
+      <c r="E41">
+        <v>5.7004</v>
+      </c>
+      <c r="F41">
+        <v>7.1604</v>
+      </c>
+      <c r="G41">
+        <v>4.99</v>
+      </c>
+      <c r="H41">
+        <v>16.9</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.898</v>
+      </c>
+      <c r="K41">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L41">
+        <v>0.889</v>
+      </c>
+      <c r="M41">
+        <v>0.16182504</v>
+      </c>
+      <c r="N41">
+        <v>0.72717496</v>
+      </c>
+      <c r="O41">
+        <v>0.145434992</v>
+      </c>
+      <c r="P41">
+        <v>0.5817399680000001</v>
+      </c>
+      <c r="Q41">
+        <v>0.5907399680000001</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1060902636814993</v>
+      </c>
+      <c r="T41">
+        <v>1.645516998356462</v>
+      </c>
+      <c r="U41">
+        <v>0.0226</v>
+      </c>
+      <c r="V41">
+        <v>0.2</v>
+      </c>
+      <c r="W41">
+        <v>0.01808</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>5.493587395374659</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.07172598696101673</v>
+      </c>
+      <c r="C42">
+        <v>11.39057982693374</v>
+      </c>
+      <c r="D42">
+        <v>13.74457982693374</v>
+      </c>
+      <c r="E42">
+        <v>5.884</v>
+      </c>
+      <c r="F42">
+        <v>7.344</v>
+      </c>
+      <c r="G42">
+        <v>4.99</v>
+      </c>
+      <c r="H42">
+        <v>16.9</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.898</v>
+      </c>
+      <c r="K42">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L42">
+        <v>0.889</v>
+      </c>
+      <c r="M42">
+        <v>0.1659744</v>
+      </c>
+      <c r="N42">
+        <v>0.7230256</v>
+      </c>
+      <c r="O42">
+        <v>0.14460512</v>
+      </c>
+      <c r="P42">
+        <v>0.57842048</v>
+      </c>
+      <c r="Q42">
+        <v>0.58742048</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1074899782683612</v>
+      </c>
+      <c r="T42">
+        <v>1.669313339619751</v>
+      </c>
+      <c r="U42">
+        <v>0.0226</v>
+      </c>
+      <c r="V42">
+        <v>0.2</v>
+      </c>
+      <c r="W42">
+        <v>0.01808</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>5.356247710490293</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.07168571307631885</v>
+      </c>
+      <c r="C43">
+        <v>11.21585281396674</v>
+      </c>
+      <c r="D43">
+        <v>13.75345281396674</v>
+      </c>
+      <c r="E43">
+        <v>6.067600000000001</v>
+      </c>
+      <c r="F43">
+        <v>7.527600000000001</v>
+      </c>
+      <c r="G43">
+        <v>4.99</v>
+      </c>
+      <c r="H43">
+        <v>16.9</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.898</v>
+      </c>
+      <c r="K43">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L43">
+        <v>0.889</v>
+      </c>
+      <c r="M43">
+        <v>0.17012376</v>
+      </c>
+      <c r="N43">
+        <v>0.7188762399999999</v>
+      </c>
+      <c r="O43">
+        <v>0.143775248</v>
+      </c>
+      <c r="P43">
+        <v>0.575100992</v>
+      </c>
+      <c r="Q43">
+        <v>0.584100992</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1089371408073201</v>
+      </c>
+      <c r="T43">
+        <v>1.693916336519085</v>
+      </c>
+      <c r="U43">
+        <v>0.0226</v>
+      </c>
+      <c r="V43">
+        <v>0.2</v>
+      </c>
+      <c r="W43">
+        <v>0.01808</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>5.225607522429553</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.071645439191621</v>
+      </c>
+      <c r="C44">
+        <v>11.04113726453777</v>
+      </c>
+      <c r="D44">
+        <v>13.76233726453777</v>
+      </c>
+      <c r="E44">
+        <v>6.2512</v>
+      </c>
+      <c r="F44">
+        <v>7.7112</v>
+      </c>
+      <c r="G44">
+        <v>4.99</v>
+      </c>
+      <c r="H44">
+        <v>16.9</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.898</v>
+      </c>
+      <c r="K44">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L44">
+        <v>0.889</v>
+      </c>
+      <c r="M44">
+        <v>0.17427312</v>
+      </c>
+      <c r="N44">
+        <v>0.7147268800000001</v>
+      </c>
+      <c r="O44">
+        <v>0.142945376</v>
+      </c>
+      <c r="P44">
+        <v>0.5717815040000001</v>
+      </c>
+      <c r="Q44">
+        <v>0.5807815040000001</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1104342055027948</v>
+      </c>
+      <c r="T44">
+        <v>1.719367712621843</v>
+      </c>
+      <c r="U44">
+        <v>0.0226</v>
+      </c>
+      <c r="V44">
+        <v>0.2</v>
+      </c>
+      <c r="W44">
+        <v>0.01808</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>5.101188295705041</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.07160516530692315</v>
+      </c>
+      <c r="C45">
+        <v>10.86643320087682</v>
+      </c>
+      <c r="D45">
+        <v>13.77123320087683</v>
+      </c>
+      <c r="E45">
+        <v>6.4348</v>
+      </c>
+      <c r="F45">
+        <v>7.8948</v>
+      </c>
+      <c r="G45">
+        <v>4.99</v>
+      </c>
+      <c r="H45">
+        <v>16.9</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.898</v>
+      </c>
+      <c r="K45">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L45">
+        <v>0.889</v>
+      </c>
+      <c r="M45">
+        <v>0.17842248</v>
+      </c>
+      <c r="N45">
+        <v>0.71057752</v>
+      </c>
+      <c r="O45">
+        <v>0.142115504</v>
+      </c>
+      <c r="P45">
+        <v>0.568462016</v>
+      </c>
+      <c r="Q45">
+        <v>0.577462016</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1119837987840757</v>
+      </c>
+      <c r="T45">
+        <v>1.745712119465049</v>
+      </c>
+      <c r="U45">
+        <v>0.0226</v>
+      </c>
+      <c r="V45">
+        <v>0.2</v>
+      </c>
+      <c r="W45">
+        <v>0.01808</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>4.982556009758412</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.07156489142222527</v>
+      </c>
+      <c r="C46">
+        <v>10.69174064527143</v>
+      </c>
+      <c r="D46">
+        <v>13.78014064527143</v>
+      </c>
+      <c r="E46">
+        <v>6.6184</v>
+      </c>
+      <c r="F46">
+        <v>8.0784</v>
+      </c>
+      <c r="G46">
+        <v>4.99</v>
+      </c>
+      <c r="H46">
+        <v>16.9</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.898</v>
+      </c>
+      <c r="K46">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L46">
+        <v>0.889</v>
+      </c>
+      <c r="M46">
+        <v>0.18257184</v>
+      </c>
+      <c r="N46">
+        <v>0.70642816</v>
+      </c>
+      <c r="O46">
+        <v>0.141285632</v>
+      </c>
+      <c r="P46">
+        <v>0.565142528</v>
+      </c>
+      <c r="Q46">
+        <v>0.574142528</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1135887346825451</v>
+      </c>
+      <c r="T46">
+        <v>1.772997397981227</v>
+      </c>
+      <c r="U46">
+        <v>0.0226</v>
+      </c>
+      <c r="V46">
+        <v>0.2</v>
+      </c>
+      <c r="W46">
+        <v>0.01808</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>4.869316100445721</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.07152461753752742</v>
+      </c>
+      <c r="C47">
+        <v>10.51705962006679</v>
+      </c>
+      <c r="D47">
+        <v>13.78905962006679</v>
+      </c>
+      <c r="E47">
+        <v>6.802</v>
+      </c>
+      <c r="F47">
+        <v>8.262</v>
+      </c>
+      <c r="G47">
+        <v>4.99</v>
+      </c>
+      <c r="H47">
+        <v>16.9</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.898</v>
+      </c>
+      <c r="K47">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L47">
+        <v>0.889</v>
+      </c>
+      <c r="M47">
+        <v>0.1867212</v>
+      </c>
+      <c r="N47">
+        <v>0.7022788</v>
+      </c>
+      <c r="O47">
+        <v>0.14045576</v>
+      </c>
+      <c r="P47">
+        <v>0.5618230399999999</v>
+      </c>
+      <c r="Q47">
+        <v>0.5708230399999999</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1152520318864135</v>
+      </c>
+      <c r="T47">
+        <v>1.801274868443447</v>
+      </c>
+      <c r="U47">
+        <v>0.0226</v>
+      </c>
+      <c r="V47">
+        <v>0.2</v>
+      </c>
+      <c r="W47">
+        <v>0.01808</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>4.761109075991371</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.07148434365282956</v>
+      </c>
+      <c r="C48">
+        <v>10.342390147666</v>
+      </c>
+      <c r="D48">
+        <v>13.797990147666</v>
+      </c>
+      <c r="E48">
+        <v>6.985600000000001</v>
+      </c>
+      <c r="F48">
+        <v>8.445600000000001</v>
+      </c>
+      <c r="G48">
+        <v>4.99</v>
+      </c>
+      <c r="H48">
+        <v>16.9</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.898</v>
+      </c>
+      <c r="K48">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L48">
+        <v>0.889</v>
+      </c>
+      <c r="M48">
+        <v>0.19087056</v>
+      </c>
+      <c r="N48">
+        <v>0.69812944</v>
+      </c>
+      <c r="O48">
+        <v>0.139625888</v>
+      </c>
+      <c r="P48">
+        <v>0.558503552</v>
+      </c>
+      <c r="Q48">
+        <v>0.567503552</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1169769326904251</v>
+      </c>
+      <c r="T48">
+        <v>1.830599652626491</v>
+      </c>
+      <c r="U48">
+        <v>0.0226</v>
+      </c>
+      <c r="V48">
+        <v>0.2</v>
+      </c>
+      <c r="W48">
+        <v>0.01808</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>4.657606704774167</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.07144406976813168</v>
+      </c>
+      <c r="C49">
+        <v>10.16773225053025</v>
+      </c>
+      <c r="D49">
+        <v>13.80693225053025</v>
+      </c>
+      <c r="E49">
+        <v>7.169200000000001</v>
+      </c>
+      <c r="F49">
+        <v>8.629200000000001</v>
+      </c>
+      <c r="G49">
+        <v>4.99</v>
+      </c>
+      <c r="H49">
+        <v>16.9</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.898</v>
+      </c>
+      <c r="K49">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L49">
+        <v>0.889</v>
+      </c>
+      <c r="M49">
+        <v>0.19501992</v>
+      </c>
+      <c r="N49">
+        <v>0.69398008</v>
+      </c>
+      <c r="O49">
+        <v>0.138796016</v>
+      </c>
+      <c r="P49">
+        <v>0.555184064</v>
+      </c>
+      <c r="Q49">
+        <v>0.564184064</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1187669240908145</v>
+      </c>
+      <c r="T49">
+        <v>1.861031032439083</v>
+      </c>
+      <c r="U49">
+        <v>0.0226</v>
+      </c>
+      <c r="V49">
+        <v>0.2</v>
+      </c>
+      <c r="W49">
+        <v>0.01808</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>4.558508689778972</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1058194897147444</v>
+      </c>
+      <c r="C50">
+        <v>5.066792802413534</v>
+      </c>
+      <c r="D50">
+        <v>8.889592802413533</v>
+      </c>
+      <c r="E50">
+        <v>7.352799999999999</v>
+      </c>
+      <c r="F50">
+        <v>8.812799999999999</v>
+      </c>
+      <c r="G50">
+        <v>4.99</v>
+      </c>
+      <c r="H50">
+        <v>16.9</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.898</v>
+      </c>
+      <c r="K50">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L50">
+        <v>0.889</v>
+      </c>
+      <c r="M50">
+        <v>0.9605951999999999</v>
+      </c>
+      <c r="N50">
+        <v>-0.07159519999999986</v>
+      </c>
+      <c r="O50">
+        <v>-0.01431903999999997</v>
+      </c>
+      <c r="P50">
+        <v>-0.05727615999999989</v>
+      </c>
+      <c r="Q50">
+        <v>-0.04827615999999989</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1215068953371363</v>
+      </c>
+      <c r="T50">
+        <v>1.907612879510673</v>
+      </c>
+      <c r="U50">
+        <v>0.109</v>
+      </c>
+      <c r="V50">
+        <v>0.1850935753166371</v>
+      </c>
+      <c r="W50">
+        <v>0.08882480029048656</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.9254678765831852</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1068164897147444</v>
+      </c>
+      <c r="C51">
+        <v>4.792306388742038</v>
+      </c>
+      <c r="D51">
+        <v>8.798706388742037</v>
+      </c>
+      <c r="E51">
+        <v>7.5364</v>
+      </c>
+      <c r="F51">
+        <v>8.9964</v>
+      </c>
+      <c r="G51">
+        <v>4.99</v>
+      </c>
+      <c r="H51">
+        <v>16.9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.898</v>
+      </c>
+      <c r="K51">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L51">
+        <v>0.889</v>
+      </c>
+      <c r="M51">
+        <v>0.9806075999999999</v>
+      </c>
+      <c r="N51">
+        <v>-0.0916075999999999</v>
+      </c>
+      <c r="O51">
+        <v>-0.01832151999999998</v>
+      </c>
+      <c r="P51">
+        <v>-0.07328607999999992</v>
+      </c>
+      <c r="Q51">
+        <v>-0.06428607999999993</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1237070305398253</v>
+      </c>
+      <c r="T51">
+        <v>1.945017053618725</v>
+      </c>
+      <c r="U51">
+        <v>0.109</v>
+      </c>
+      <c r="V51">
+        <v>0.1813161554122159</v>
+      </c>
+      <c r="W51">
+        <v>0.08923653906006847</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.9065807770610794</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1078134897147444</v>
+      </c>
+      <c r="C52">
+        <v>4.51965959631821</v>
+      </c>
+      <c r="D52">
+        <v>8.709659596318209</v>
+      </c>
+      <c r="E52">
+        <v>7.72</v>
+      </c>
+      <c r="F52">
+        <v>9.18</v>
+      </c>
+      <c r="G52">
+        <v>4.99</v>
+      </c>
+      <c r="H52">
+        <v>16.9</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.898</v>
+      </c>
+      <c r="K52">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L52">
+        <v>0.889</v>
+      </c>
+      <c r="M52">
+        <v>1.00062</v>
+      </c>
+      <c r="N52">
+        <v>-0.1116200000000001</v>
+      </c>
+      <c r="O52">
+        <v>-0.02232400000000001</v>
+      </c>
+      <c r="P52">
+        <v>-0.08929600000000004</v>
+      </c>
+      <c r="Q52">
+        <v>-0.08029600000000005</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1259951711506218</v>
+      </c>
+      <c r="T52">
+        <v>1.9839173946911</v>
+      </c>
+      <c r="U52">
+        <v>0.109</v>
+      </c>
+      <c r="V52">
+        <v>0.1776898323039715</v>
+      </c>
+      <c r="W52">
+        <v>0.0896318082788671</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.8884491615198576</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1088104897147444</v>
+      </c>
+      <c r="C53">
+        <v>4.248797131401988</v>
+      </c>
+      <c r="D53">
+        <v>8.622397131401987</v>
+      </c>
+      <c r="E53">
+        <v>7.9036</v>
+      </c>
+      <c r="F53">
+        <v>9.3636</v>
+      </c>
+      <c r="G53">
+        <v>4.99</v>
+      </c>
+      <c r="H53">
+        <v>16.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.898</v>
+      </c>
+      <c r="K53">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L53">
+        <v>0.889</v>
+      </c>
+      <c r="M53">
+        <v>1.0206324</v>
+      </c>
+      <c r="N53">
+        <v>-0.1316324</v>
+      </c>
+      <c r="O53">
+        <v>-0.02632648</v>
+      </c>
+      <c r="P53">
+        <v>-0.10530592</v>
+      </c>
+      <c r="Q53">
+        <v>-0.09630591999999999</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1283767052557365</v>
+      </c>
+      <c r="T53">
+        <v>2.024405504786837</v>
+      </c>
+      <c r="U53">
+        <v>0.109</v>
+      </c>
+      <c r="V53">
+        <v>0.1742057179450701</v>
+      </c>
+      <c r="W53">
+        <v>0.09001157674398735</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.8710285897253507</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1098074897147444</v>
+      </c>
+      <c r="C54">
+        <v>3.979665894233431</v>
+      </c>
+      <c r="D54">
+        <v>8.536865894233431</v>
+      </c>
+      <c r="E54">
+        <v>8.087199999999999</v>
+      </c>
+      <c r="F54">
+        <v>9.5472</v>
+      </c>
+      <c r="G54">
+        <v>4.99</v>
+      </c>
+      <c r="H54">
+        <v>16.9</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.898</v>
+      </c>
+      <c r="K54">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L54">
+        <v>0.889</v>
+      </c>
+      <c r="M54">
+        <v>1.0406448</v>
+      </c>
+      <c r="N54">
+        <v>-0.1516447999999999</v>
+      </c>
+      <c r="O54">
+        <v>-0.03032895999999998</v>
+      </c>
+      <c r="P54">
+        <v>-0.1213158399999999</v>
+      </c>
+      <c r="Q54">
+        <v>-0.1123158399999999</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1308574699485643</v>
+      </c>
+      <c r="T54">
+        <v>2.066580619469896</v>
+      </c>
+      <c r="U54">
+        <v>0.109</v>
+      </c>
+      <c r="V54">
+        <v>0.170855607984588</v>
+      </c>
+      <c r="W54">
+        <v>0.09037673872967991</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.8542780399229402</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1108044897147444</v>
+      </c>
+      <c r="C55">
+        <v>3.712214871283907</v>
+      </c>
+      <c r="D55">
+        <v>8.453014871283907</v>
+      </c>
+      <c r="E55">
+        <v>8.270800000000001</v>
+      </c>
+      <c r="F55">
+        <v>9.7308</v>
+      </c>
+      <c r="G55">
+        <v>4.99</v>
+      </c>
+      <c r="H55">
+        <v>16.9</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.898</v>
+      </c>
+      <c r="K55">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L55">
+        <v>0.889</v>
+      </c>
+      <c r="M55">
+        <v>1.0606572</v>
+      </c>
+      <c r="N55">
+        <v>-0.1716572000000001</v>
+      </c>
+      <c r="O55">
+        <v>-0.03433144000000001</v>
+      </c>
+      <c r="P55">
+        <v>-0.13732576</v>
+      </c>
+      <c r="Q55">
+        <v>-0.12832576</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1334437990964061</v>
+      </c>
+      <c r="T55">
+        <v>2.110550419884149</v>
+      </c>
+      <c r="U55">
+        <v>0.109</v>
+      </c>
+      <c r="V55">
+        <v>0.1676319172678977</v>
+      </c>
+      <c r="W55">
+        <v>0.09072812101779915</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.8381595863394884</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1118014897147444</v>
+      </c>
+      <c r="C56">
+        <v>3.44639503379546</v>
+      </c>
+      <c r="D56">
+        <v>8.37079503379546</v>
+      </c>
+      <c r="E56">
+        <v>8.4544</v>
+      </c>
+      <c r="F56">
+        <v>9.914400000000001</v>
+      </c>
+      <c r="G56">
+        <v>4.99</v>
+      </c>
+      <c r="H56">
+        <v>16.9</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.898</v>
+      </c>
+      <c r="K56">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L56">
+        <v>0.889</v>
+      </c>
+      <c r="M56">
+        <v>1.0806696</v>
+      </c>
+      <c r="N56">
+        <v>-0.1916696</v>
+      </c>
+      <c r="O56">
+        <v>-0.03833392</v>
+      </c>
+      <c r="P56">
+        <v>-0.15333568</v>
+      </c>
+      <c r="Q56">
+        <v>-0.14433568</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1361425773376324</v>
+      </c>
+      <c r="T56">
+        <v>2.156431950751196</v>
+      </c>
+      <c r="U56">
+        <v>0.109</v>
+      </c>
+      <c r="V56">
+        <v>0.1645276225036774</v>
+      </c>
+      <c r="W56">
+        <v>0.09106648914709917</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.8226381125183868</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1127984897147444</v>
+      </c>
+      <c r="C57">
+        <v>3.182159242184433</v>
+      </c>
+      <c r="D57">
+        <v>8.290159242184433</v>
+      </c>
+      <c r="E57">
+        <v>8.638000000000002</v>
+      </c>
+      <c r="F57">
+        <v>10.098</v>
+      </c>
+      <c r="G57">
+        <v>4.99</v>
+      </c>
+      <c r="H57">
+        <v>16.9</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.898</v>
+      </c>
+      <c r="K57">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L57">
+        <v>0.889</v>
+      </c>
+      <c r="M57">
+        <v>1.100682</v>
+      </c>
+      <c r="N57">
+        <v>-0.2116820000000001</v>
+      </c>
+      <c r="O57">
+        <v>-0.04233640000000003</v>
+      </c>
+      <c r="P57">
+        <v>-0.1693456000000001</v>
+      </c>
+      <c r="Q57">
+        <v>-0.1603456000000001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1389613012784686</v>
+      </c>
+      <c r="T57">
+        <v>2.204352660767889</v>
+      </c>
+      <c r="U57">
+        <v>0.109</v>
+      </c>
+      <c r="V57">
+        <v>0.1615362111854287</v>
+      </c>
+      <c r="W57">
+        <v>0.09139255298078829</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.8076810559271432</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1325335947884745</v>
+      </c>
+      <c r="C58">
+        <v>1.67094103869626</v>
+      </c>
+      <c r="D58">
+        <v>6.962541038696259</v>
+      </c>
+      <c r="E58">
+        <v>8.8216</v>
+      </c>
+      <c r="F58">
+        <v>10.2816</v>
+      </c>
+      <c r="G58">
+        <v>4.99</v>
+      </c>
+      <c r="H58">
+        <v>16.9</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.898</v>
+      </c>
+      <c r="K58">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L58">
+        <v>0.889</v>
+      </c>
+      <c r="M58">
+        <v>1.44148032</v>
+      </c>
+      <c r="N58">
+        <v>-0.5524803200000001</v>
+      </c>
+      <c r="O58">
+        <v>-0.110496064</v>
+      </c>
+      <c r="P58">
+        <v>-0.4419842560000001</v>
+      </c>
+      <c r="Q58">
+        <v>-0.4329842560000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1447856605660021</v>
+      </c>
+      <c r="T58">
+        <v>2.303371734046885</v>
+      </c>
+      <c r="U58">
+        <v>0.1402</v>
+      </c>
+      <c r="V58">
+        <v>0.1233454231272474</v>
+      </c>
+      <c r="W58">
+        <v>0.1229069716775599</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.6167271156362371</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1338425947884745</v>
+      </c>
+      <c r="C59">
+        <v>1.414161527420356</v>
+      </c>
+      <c r="D59">
+        <v>6.889361527420357</v>
+      </c>
+      <c r="E59">
+        <v>9.005200000000002</v>
+      </c>
+      <c r="F59">
+        <v>10.4652</v>
+      </c>
+      <c r="G59">
+        <v>4.99</v>
+      </c>
+      <c r="H59">
+        <v>16.9</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.898</v>
+      </c>
+      <c r="K59">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L59">
+        <v>0.889</v>
+      </c>
+      <c r="M59">
+        <v>1.46722104</v>
+      </c>
+      <c r="N59">
+        <v>-0.5782210400000001</v>
+      </c>
+      <c r="O59">
+        <v>-0.115644208</v>
+      </c>
+      <c r="P59">
+        <v>-0.462576832</v>
+      </c>
+      <c r="Q59">
+        <v>-0.453576832</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1479364898814906</v>
+      </c>
+      <c r="T59">
+        <v>2.356938518559604</v>
+      </c>
+      <c r="U59">
+        <v>0.1402</v>
+      </c>
+      <c r="V59">
+        <v>0.1211814683355413</v>
+      </c>
+      <c r="W59">
+        <v>0.1232103581393571</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.6059073416777065</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1351515947884745</v>
+      </c>
+      <c r="C60">
+        <v>1.158904316762433</v>
+      </c>
+      <c r="D60">
+        <v>6.817704316762432</v>
+      </c>
+      <c r="E60">
+        <v>9.188800000000001</v>
+      </c>
+      <c r="F60">
+        <v>10.6488</v>
+      </c>
+      <c r="G60">
+        <v>4.99</v>
+      </c>
+      <c r="H60">
+        <v>16.9</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.898</v>
+      </c>
+      <c r="K60">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L60">
+        <v>0.889</v>
+      </c>
+      <c r="M60">
+        <v>1.49296176</v>
+      </c>
+      <c r="N60">
+        <v>-0.6039617599999998</v>
+      </c>
+      <c r="O60">
+        <v>-0.120792352</v>
+      </c>
+      <c r="P60">
+        <v>-0.4831694079999999</v>
+      </c>
+      <c r="Q60">
+        <v>-0.4741694079999998</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1512373586881927</v>
+      </c>
+      <c r="T60">
+        <v>2.413056102334831</v>
+      </c>
+      <c r="U60">
+        <v>0.1402</v>
+      </c>
+      <c r="V60">
+        <v>0.1190921326745837</v>
+      </c>
+      <c r="W60">
+        <v>0.1235032829990234</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.5954606633729187</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1364605947884745</v>
+      </c>
+      <c r="C61">
+        <v>0.9051223947174218</v>
+      </c>
+      <c r="D61">
+        <v>6.747522394717421</v>
+      </c>
+      <c r="E61">
+        <v>9.372399999999999</v>
+      </c>
+      <c r="F61">
+        <v>10.8324</v>
+      </c>
+      <c r="G61">
+        <v>4.99</v>
+      </c>
+      <c r="H61">
+        <v>16.9</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.898</v>
+      </c>
+      <c r="K61">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L61">
+        <v>0.889</v>
+      </c>
+      <c r="M61">
+        <v>1.51870248</v>
+      </c>
+      <c r="N61">
+        <v>-0.62970248</v>
+      </c>
+      <c r="O61">
+        <v>-0.125940496</v>
+      </c>
+      <c r="P61">
+        <v>-0.5037619839999999</v>
+      </c>
+      <c r="Q61">
+        <v>-0.4947619839999999</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1546992454854657</v>
+      </c>
+      <c r="T61">
+        <v>2.471911129221047</v>
+      </c>
+      <c r="U61">
+        <v>0.1402</v>
+      </c>
+      <c r="V61">
+        <v>0.1170736219512857</v>
+      </c>
+      <c r="W61">
+        <v>0.1237862782024297</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.5853681097564284</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1377695947884745</v>
+      </c>
+      <c r="C62">
+        <v>0.6527706653356358</v>
+      </c>
+      <c r="D62">
+        <v>6.678770665335636</v>
+      </c>
+      <c r="E62">
+        <v>9.556000000000001</v>
+      </c>
+      <c r="F62">
+        <v>11.016</v>
+      </c>
+      <c r="G62">
+        <v>4.99</v>
+      </c>
+      <c r="H62">
+        <v>16.9</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.898</v>
+      </c>
+      <c r="K62">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L62">
+        <v>0.889</v>
+      </c>
+      <c r="M62">
+        <v>1.5444432</v>
+      </c>
+      <c r="N62">
+        <v>-0.6554431999999999</v>
+      </c>
+      <c r="O62">
+        <v>-0.13108864</v>
+      </c>
+      <c r="P62">
+        <v>-0.5243545599999999</v>
+      </c>
+      <c r="Q62">
+        <v>-0.5153545599999999</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1583342266226023</v>
+      </c>
+      <c r="T62">
+        <v>2.533708907451573</v>
+      </c>
+      <c r="U62">
+        <v>0.1402</v>
+      </c>
+      <c r="V62">
+        <v>0.1151223949187643</v>
+      </c>
+      <c r="W62">
+        <v>0.1240598402323892</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.5756119745938213</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1390785947884745</v>
+      </c>
+      <c r="C63">
+        <v>0.4018058520921723</v>
+      </c>
+      <c r="D63">
+        <v>6.611405852092172</v>
+      </c>
+      <c r="E63">
+        <v>9.739599999999999</v>
+      </c>
+      <c r="F63">
+        <v>11.1996</v>
+      </c>
+      <c r="G63">
+        <v>4.99</v>
+      </c>
+      <c r="H63">
+        <v>16.9</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.898</v>
+      </c>
+      <c r="K63">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L63">
+        <v>0.889</v>
+      </c>
+      <c r="M63">
+        <v>1.57018392</v>
+      </c>
+      <c r="N63">
+        <v>-0.6811839199999998</v>
+      </c>
+      <c r="O63">
+        <v>-0.136236784</v>
+      </c>
+      <c r="P63">
+        <v>-0.5449471359999999</v>
+      </c>
+      <c r="Q63">
+        <v>-0.5359471359999999</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1621556170488229</v>
+      </c>
+      <c r="T63">
+        <v>2.598675802514435</v>
+      </c>
+      <c r="U63">
+        <v>0.1402</v>
+      </c>
+      <c r="V63">
+        <v>0.1132351425430468</v>
+      </c>
+      <c r="W63">
+        <v>0.1243244330154648</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.566175712715234</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1403875947884745</v>
+      </c>
+      <c r="C64">
+        <v>0.15218640704588</v>
+      </c>
+      <c r="D64">
+        <v>6.545386407045879</v>
+      </c>
+      <c r="E64">
+        <v>9.923200000000001</v>
+      </c>
+      <c r="F64">
+        <v>11.3832</v>
+      </c>
+      <c r="G64">
+        <v>4.99</v>
+      </c>
+      <c r="H64">
+        <v>16.9</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.898</v>
+      </c>
+      <c r="K64">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L64">
+        <v>0.889</v>
+      </c>
+      <c r="M64">
+        <v>1.59592464</v>
+      </c>
+      <c r="N64">
+        <v>-0.70692464</v>
+      </c>
+      <c r="O64">
+        <v>-0.141384928</v>
+      </c>
+      <c r="P64">
+        <v>-0.565539712</v>
+      </c>
+      <c r="Q64">
+        <v>-0.556539712</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1661781332869498</v>
+      </c>
+      <c r="T64">
+        <v>2.667062007843761</v>
+      </c>
+      <c r="U64">
+        <v>0.1402</v>
+      </c>
+      <c r="V64">
+        <v>0.1114087692762235</v>
+      </c>
+      <c r="W64">
+        <v>0.1245804905474735</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.5570438463811174</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1416965947884745</v>
+      </c>
+      <c r="C65">
+        <v>-0.09612757461287558</v>
+      </c>
+      <c r="D65">
+        <v>6.480672425387123</v>
+      </c>
+      <c r="E65">
+        <v>10.1068</v>
+      </c>
+      <c r="F65">
+        <v>11.5668</v>
+      </c>
+      <c r="G65">
+        <v>4.99</v>
+      </c>
+      <c r="H65">
+        <v>16.9</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.898</v>
+      </c>
+      <c r="K65">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L65">
+        <v>0.889</v>
+      </c>
+      <c r="M65">
+        <v>1.62166536</v>
+      </c>
+      <c r="N65">
+        <v>-0.7326653599999997</v>
+      </c>
+      <c r="O65">
+        <v>-0.146533072</v>
+      </c>
+      <c r="P65">
+        <v>-0.5861322879999997</v>
+      </c>
+      <c r="Q65">
+        <v>-0.5771322879999997</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1704180828352458</v>
+      </c>
+      <c r="T65">
+        <v>2.739144764812512</v>
+      </c>
+      <c r="U65">
+        <v>0.1402</v>
+      </c>
+      <c r="V65">
+        <v>0.1096403761131088</v>
+      </c>
+      <c r="W65">
+        <v>0.1248284192689421</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.5482018805655442</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1430055947884745</v>
+      </c>
+      <c r="C66">
+        <v>-0.3431744349948396</v>
+      </c>
+      <c r="D66">
+        <v>6.41722556500516</v>
+      </c>
+      <c r="E66">
+        <v>10.2904</v>
+      </c>
+      <c r="F66">
+        <v>11.7504</v>
+      </c>
+      <c r="G66">
+        <v>4.99</v>
+      </c>
+      <c r="H66">
+        <v>16.9</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.898</v>
+      </c>
+      <c r="K66">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L66">
+        <v>0.889</v>
+      </c>
+      <c r="M66">
+        <v>1.64740608</v>
+      </c>
+      <c r="N66">
+        <v>-0.7584060799999996</v>
+      </c>
+      <c r="O66">
+        <v>-0.151681216</v>
+      </c>
+      <c r="P66">
+        <v>-0.6067248639999997</v>
+      </c>
+      <c r="Q66">
+        <v>-0.5977248639999997</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1748935851362248</v>
+      </c>
+      <c r="T66">
+        <v>2.815232119390637</v>
+      </c>
+      <c r="U66">
+        <v>0.1402</v>
+      </c>
+      <c r="V66">
+        <v>0.1079272452363415</v>
+      </c>
+      <c r="W66">
+        <v>0.1250686002178649</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.5396362261817076</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1443145947884745</v>
+      </c>
+      <c r="C67">
+        <v>-0.5889910292656477</v>
+      </c>
+      <c r="D67">
+        <v>6.355008970734352</v>
+      </c>
+      <c r="E67">
+        <v>10.474</v>
+      </c>
+      <c r="F67">
+        <v>11.934</v>
+      </c>
+      <c r="G67">
+        <v>4.99</v>
+      </c>
+      <c r="H67">
+        <v>16.9</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.898</v>
+      </c>
+      <c r="K67">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L67">
+        <v>0.889</v>
+      </c>
+      <c r="M67">
+        <v>1.6731468</v>
+      </c>
+      <c r="N67">
+        <v>-0.7841467999999998</v>
+      </c>
+      <c r="O67">
+        <v>-0.15682936</v>
+      </c>
+      <c r="P67">
+        <v>-0.6273174399999999</v>
+      </c>
+      <c r="Q67">
+        <v>-0.6183174399999999</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1796248304258313</v>
+      </c>
+      <c r="T67">
+        <v>2.895667322801799</v>
+      </c>
+      <c r="U67">
+        <v>0.1402</v>
+      </c>
+      <c r="V67">
+        <v>0.1062668260788593</v>
+      </c>
+      <c r="W67">
+        <v>0.1253013909837439</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.5313341303942967</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1456235947884745</v>
+      </c>
+      <c r="C68">
+        <v>-0.833612797035185</v>
+      </c>
+      <c r="D68">
+        <v>6.293987202964814</v>
+      </c>
+      <c r="E68">
+        <v>10.6576</v>
+      </c>
+      <c r="F68">
+        <v>12.1176</v>
+      </c>
+      <c r="G68">
+        <v>4.99</v>
+      </c>
+      <c r="H68">
+        <v>16.9</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.898</v>
+      </c>
+      <c r="K68">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L68">
+        <v>0.889</v>
+      </c>
+      <c r="M68">
+        <v>1.69888752</v>
+      </c>
+      <c r="N68">
+        <v>-0.8098875199999997</v>
+      </c>
+      <c r="O68">
+        <v>-0.161977504</v>
+      </c>
+      <c r="P68">
+        <v>-0.6479100159999998</v>
+      </c>
+      <c r="Q68">
+        <v>-0.6389100159999997</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1846343842618851</v>
+      </c>
+      <c r="T68">
+        <v>2.980834008766557</v>
+      </c>
+      <c r="U68">
+        <v>0.1402</v>
+      </c>
+      <c r="V68">
+        <v>0.1046567226534221</v>
+      </c>
+      <c r="W68">
+        <v>0.1255271274839902</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.5232836132671104</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1469325947884745</v>
+      </c>
+      <c r="C69">
+        <v>-1.077073829673152</v>
+      </c>
+      <c r="D69">
+        <v>6.234126170326847</v>
+      </c>
+      <c r="E69">
+        <v>10.8412</v>
+      </c>
+      <c r="F69">
+        <v>12.3012</v>
+      </c>
+      <c r="G69">
+        <v>4.99</v>
+      </c>
+      <c r="H69">
+        <v>16.9</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.898</v>
+      </c>
+      <c r="K69">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L69">
+        <v>0.889</v>
+      </c>
+      <c r="M69">
+        <v>1.72462824</v>
+      </c>
+      <c r="N69">
+        <v>-0.8356282399999999</v>
+      </c>
+      <c r="O69">
+        <v>-0.167125648</v>
+      </c>
+      <c r="P69">
+        <v>-0.668502592</v>
+      </c>
+      <c r="Q69">
+        <v>-0.6595025919999999</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1899475474213362</v>
+      </c>
+      <c r="T69">
+        <v>3.071162312062514</v>
+      </c>
+      <c r="U69">
+        <v>0.1402</v>
+      </c>
+      <c r="V69">
+        <v>0.1030946820168038</v>
+      </c>
+      <c r="W69">
+        <v>0.1257461255812441</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.515473410084019</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1482415947884745</v>
+      </c>
+      <c r="C70">
+        <v>-1.319406933819407</v>
+      </c>
+      <c r="D70">
+        <v>6.175393066180593</v>
+      </c>
+      <c r="E70">
+        <v>11.0248</v>
+      </c>
+      <c r="F70">
+        <v>12.4848</v>
+      </c>
+      <c r="G70">
+        <v>4.99</v>
+      </c>
+      <c r="H70">
+        <v>16.9</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.898</v>
+      </c>
+      <c r="K70">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L70">
+        <v>0.889</v>
+      </c>
+      <c r="M70">
+        <v>1.75036896</v>
+      </c>
+      <c r="N70">
+        <v>-0.8613689599999999</v>
+      </c>
+      <c r="O70">
+        <v>-0.172273792</v>
+      </c>
+      <c r="P70">
+        <v>-0.6890951679999999</v>
+      </c>
+      <c r="Q70">
+        <v>-0.6800951679999999</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.195592783278253</v>
+      </c>
+      <c r="T70">
+        <v>3.167136134314468</v>
+      </c>
+      <c r="U70">
+        <v>0.1402</v>
+      </c>
+      <c r="V70">
+        <v>0.1015785837518508</v>
+      </c>
+      <c r="W70">
+        <v>0.1259586825579905</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.507892918759254</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1495505947884745</v>
+      </c>
+      <c r="C71">
+        <v>-1.560643691337775</v>
+      </c>
+      <c r="D71">
+        <v>6.117756308662225</v>
+      </c>
+      <c r="E71">
+        <v>11.2084</v>
+      </c>
+      <c r="F71">
+        <v>12.6684</v>
+      </c>
+      <c r="G71">
+        <v>4.99</v>
+      </c>
+      <c r="H71">
+        <v>16.9</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.898</v>
+      </c>
+      <c r="K71">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L71">
+        <v>0.889</v>
+      </c>
+      <c r="M71">
+        <v>1.77610968</v>
+      </c>
+      <c r="N71">
+        <v>-0.8871096799999998</v>
+      </c>
+      <c r="O71">
+        <v>-0.177421936</v>
+      </c>
+      <c r="P71">
+        <v>-0.7096877439999998</v>
+      </c>
+      <c r="Q71">
+        <v>-0.7006877439999998</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2016022279001321</v>
+      </c>
+      <c r="T71">
+        <v>3.269301816066547</v>
+      </c>
+      <c r="U71">
+        <v>0.1402</v>
+      </c>
+      <c r="V71">
+        <v>0.1001064303641429</v>
+      </c>
+      <c r="W71">
+        <v>0.1261650784629472</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.5005321518207142</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1823570169384213</v>
+      </c>
+      <c r="C72">
+        <v>-2.903986876694361</v>
+      </c>
+      <c r="D72">
+        <v>4.958013123305638</v>
+      </c>
+      <c r="E72">
+        <v>11.392</v>
+      </c>
+      <c r="F72">
+        <v>12.852</v>
+      </c>
+      <c r="G72">
+        <v>4.99</v>
+      </c>
+      <c r="H72">
+        <v>16.9</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.898</v>
+      </c>
+      <c r="K72">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L72">
+        <v>0.889</v>
+      </c>
+      <c r="M72">
+        <v>2.3609124</v>
+      </c>
+      <c r="N72">
+        <v>-1.4719124</v>
+      </c>
+      <c r="O72">
+        <v>-0.2943824800000001</v>
+      </c>
+      <c r="P72">
+        <v>-1.17752992</v>
+      </c>
+      <c r="Q72">
+        <v>-1.16852992</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2115037093299592</v>
+      </c>
+      <c r="T72">
+        <v>3.437635441598405</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.07530986749021268</v>
+      </c>
+      <c r="W72">
+        <v>0.1698655773420479</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.3765493374510634</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1841010169384213</v>
+      </c>
+      <c r="C73">
+        <v>-3.137053264467671</v>
+      </c>
+      <c r="D73">
+        <v>4.908546735532329</v>
+      </c>
+      <c r="E73">
+        <v>11.5756</v>
+      </c>
+      <c r="F73">
+        <v>13.0356</v>
+      </c>
+      <c r="G73">
+        <v>4.99</v>
+      </c>
+      <c r="H73">
+        <v>16.9</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.898</v>
+      </c>
+      <c r="K73">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L73">
+        <v>0.889</v>
+      </c>
+      <c r="M73">
+        <v>2.39463972</v>
+      </c>
+      <c r="N73">
+        <v>-1.50563972</v>
+      </c>
+      <c r="O73">
+        <v>-0.301127944</v>
+      </c>
+      <c r="P73">
+        <v>-1.204511776</v>
+      </c>
+      <c r="Q73">
+        <v>-1.195511776</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2184762510309922</v>
+      </c>
+      <c r="T73">
+        <v>3.556174594756969</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.0742491651311956</v>
+      </c>
+      <c r="W73">
+        <v>0.1700604283653994</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.3712458256559781</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1858450169384213</v>
+      </c>
+      <c r="C74">
+        <v>-3.369142344789628</v>
+      </c>
+      <c r="D74">
+        <v>4.860057655210372</v>
+      </c>
+      <c r="E74">
+        <v>11.7592</v>
+      </c>
+      <c r="F74">
+        <v>13.2192</v>
+      </c>
+      <c r="G74">
+        <v>4.99</v>
+      </c>
+      <c r="H74">
+        <v>16.9</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.898</v>
+      </c>
+      <c r="K74">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L74">
+        <v>0.889</v>
+      </c>
+      <c r="M74">
+        <v>2.42836704</v>
+      </c>
+      <c r="N74">
+        <v>-1.53936704</v>
+      </c>
+      <c r="O74">
+        <v>-0.307873408</v>
+      </c>
+      <c r="P74">
+        <v>-1.231493632</v>
+      </c>
+      <c r="Q74">
+        <v>-1.222493632</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2259468314249562</v>
+      </c>
+      <c r="T74">
+        <v>3.683180830284004</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.07321792672659566</v>
+      </c>
+      <c r="W74">
+        <v>0.1702498668603244</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.3660896336329783</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1875890169384213</v>
+      </c>
+      <c r="C75">
+        <v>-3.600282797343777</v>
+      </c>
+      <c r="D75">
+        <v>4.812517202656222</v>
+      </c>
+      <c r="E75">
+        <v>11.9428</v>
+      </c>
+      <c r="F75">
+        <v>13.4028</v>
+      </c>
+      <c r="G75">
+        <v>4.99</v>
+      </c>
+      <c r="H75">
+        <v>16.9</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.898</v>
+      </c>
+      <c r="K75">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L75">
+        <v>0.889</v>
+      </c>
+      <c r="M75">
+        <v>2.46209436</v>
+      </c>
+      <c r="N75">
+        <v>-1.57309436</v>
+      </c>
+      <c r="O75">
+        <v>-0.314618872</v>
+      </c>
+      <c r="P75">
+        <v>-1.258475488</v>
+      </c>
+      <c r="Q75">
+        <v>-1.249475488</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.233970788144399</v>
+      </c>
+      <c r="T75">
+        <v>3.819594935109337</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.07221494142897107</v>
+      </c>
+      <c r="W75">
+        <v>0.170434115259498</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.3610747071448553</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1893330169384213</v>
+      </c>
+      <c r="C76">
+        <v>-3.830502190520436</v>
+      </c>
+      <c r="D76">
+        <v>4.765897809479564</v>
+      </c>
+      <c r="E76">
+        <v>12.1264</v>
+      </c>
+      <c r="F76">
+        <v>13.5864</v>
+      </c>
+      <c r="G76">
+        <v>4.99</v>
+      </c>
+      <c r="H76">
+        <v>16.9</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.898</v>
+      </c>
+      <c r="K76">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L76">
+        <v>0.889</v>
+      </c>
+      <c r="M76">
+        <v>2.49582168</v>
+      </c>
+      <c r="N76">
+        <v>-1.60682168</v>
+      </c>
+      <c r="O76">
+        <v>-0.321364336</v>
+      </c>
+      <c r="P76">
+        <v>-1.285457344</v>
+      </c>
+      <c r="Q76">
+        <v>-1.276457344</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.242611972303799</v>
+      </c>
+      <c r="T76">
+        <v>3.966502432613543</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.07123906384209309</v>
+      </c>
+      <c r="W76">
+        <v>0.1706133839722075</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.3561953192104654</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1910770169384213</v>
+      </c>
+      <c r="C77">
+        <v>-4.059827034726389</v>
+      </c>
+      <c r="D77">
+        <v>4.720172965273609</v>
+      </c>
+      <c r="E77">
+        <v>12.31</v>
+      </c>
+      <c r="F77">
+        <v>13.77</v>
+      </c>
+      <c r="G77">
+        <v>4.99</v>
+      </c>
+      <c r="H77">
+        <v>16.9</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.898</v>
+      </c>
+      <c r="K77">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L77">
+        <v>0.889</v>
+      </c>
+      <c r="M77">
+        <v>2.529549</v>
+      </c>
+      <c r="N77">
+        <v>-1.640549</v>
+      </c>
+      <c r="O77">
+        <v>-0.3281098</v>
+      </c>
+      <c r="P77">
+        <v>-1.3124392</v>
+      </c>
+      <c r="Q77">
+        <v>-1.3034392</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2519444511959509</v>
+      </c>
+      <c r="T77">
+        <v>4.125162529918085</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.07028920965753184</v>
+      </c>
+      <c r="W77">
+        <v>0.1707878721859114</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.3514460482876592</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1928210169384213</v>
+      </c>
+      <c r="C78">
+        <v>-4.28828283265497</v>
+      </c>
+      <c r="D78">
+        <v>4.67531716734503</v>
+      </c>
+      <c r="E78">
+        <v>12.4936</v>
+      </c>
+      <c r="F78">
+        <v>13.9536</v>
+      </c>
+      <c r="G78">
+        <v>4.99</v>
+      </c>
+      <c r="H78">
+        <v>16.9</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.898</v>
+      </c>
+      <c r="K78">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L78">
+        <v>0.889</v>
+      </c>
+      <c r="M78">
+        <v>2.56327632</v>
+      </c>
+      <c r="N78">
+        <v>-1.67427632</v>
+      </c>
+      <c r="O78">
+        <v>-0.334855264</v>
+      </c>
+      <c r="P78">
+        <v>-1.339421056</v>
+      </c>
+      <c r="Q78">
+        <v>-1.330421056</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2620546366624489</v>
+      </c>
+      <c r="T78">
+        <v>4.297044301998006</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.06936435163572222</v>
+      </c>
+      <c r="W78">
+        <v>0.1709577686045178</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.3468217581786111</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1945650169384213</v>
+      </c>
+      <c r="C79">
+        <v>-4.515894126716816</v>
+      </c>
+      <c r="D79">
+        <v>4.631305873283183</v>
+      </c>
+      <c r="E79">
+        <v>12.6772</v>
+      </c>
+      <c r="F79">
+        <v>14.1372</v>
+      </c>
+      <c r="G79">
+        <v>4.99</v>
+      </c>
+      <c r="H79">
+        <v>16.9</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.898</v>
+      </c>
+      <c r="K79">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L79">
+        <v>0.889</v>
+      </c>
+      <c r="M79">
+        <v>2.59700364</v>
+      </c>
+      <c r="N79">
+        <v>-1.70800364</v>
+      </c>
+      <c r="O79">
+        <v>-0.341600728</v>
+      </c>
+      <c r="P79">
+        <v>-1.366402912</v>
+      </c>
+      <c r="Q79">
+        <v>-1.357402912</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.273043968691251</v>
+      </c>
+      <c r="T79">
+        <v>4.483872315128353</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.06846351590019335</v>
+      </c>
+      <c r="W79">
+        <v>0.1711232521291345</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.3423175795009668</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1963090169384213</v>
+      </c>
+      <c r="C80">
+        <v>-4.742684543816681</v>
+      </c>
+      <c r="D80">
+        <v>4.58811545618332</v>
+      </c>
+      <c r="E80">
+        <v>12.8608</v>
+      </c>
+      <c r="F80">
+        <v>14.3208</v>
+      </c>
+      <c r="G80">
+        <v>4.99</v>
+      </c>
+      <c r="H80">
+        <v>16.9</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.898</v>
+      </c>
+      <c r="K80">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L80">
+        <v>0.889</v>
+      </c>
+      <c r="M80">
+        <v>2.63073096</v>
+      </c>
+      <c r="N80">
+        <v>-1.74173096</v>
+      </c>
+      <c r="O80">
+        <v>-0.3483461920000001</v>
+      </c>
+      <c r="P80">
+        <v>-1.393384768</v>
+      </c>
+      <c r="Q80">
+        <v>-1.384384768</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2850323309044898</v>
+      </c>
+      <c r="T80">
+        <v>4.687684693088734</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.06758577851685753</v>
+      </c>
+      <c r="W80">
+        <v>0.1712844924864533</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.3379288925842877</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1980530169384213</v>
+      </c>
+      <c r="C81">
+        <v>-4.968676837647905</v>
+      </c>
+      <c r="D81">
+        <v>4.545723162352095</v>
+      </c>
+      <c r="E81">
+        <v>13.0444</v>
+      </c>
+      <c r="F81">
+        <v>14.5044</v>
+      </c>
+      <c r="G81">
+        <v>4.99</v>
+      </c>
+      <c r="H81">
+        <v>16.9</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.898</v>
+      </c>
+      <c r="K81">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L81">
+        <v>0.889</v>
+      </c>
+      <c r="M81">
+        <v>2.66445828</v>
+      </c>
+      <c r="N81">
+        <v>-1.77545828</v>
+      </c>
+      <c r="O81">
+        <v>-0.3550916560000001</v>
+      </c>
+      <c r="P81">
+        <v>-1.420366624</v>
+      </c>
+      <c r="Q81">
+        <v>-1.411366624</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2981624418999416</v>
+      </c>
+      <c r="T81">
+        <v>4.910907773712006</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.06673026233309985</v>
+      </c>
+      <c r="W81">
+        <v>0.1714416508094096</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.3336513116654992</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1997970169384213</v>
+      </c>
+      <c r="C82">
+        <v>-5.193892928663676</v>
+      </c>
+      <c r="D82">
+        <v>4.504107071336325</v>
+      </c>
+      <c r="E82">
+        <v>13.228</v>
+      </c>
+      <c r="F82">
+        <v>14.688</v>
+      </c>
+      <c r="G82">
+        <v>4.99</v>
+      </c>
+      <c r="H82">
+        <v>16.9</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.898</v>
+      </c>
+      <c r="K82">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L82">
+        <v>0.889</v>
+      </c>
+      <c r="M82">
+        <v>2.6981856</v>
+      </c>
+      <c r="N82">
+        <v>-1.8091856</v>
+      </c>
+      <c r="O82">
+        <v>-0.36183712</v>
+      </c>
+      <c r="P82">
+        <v>-1.44734848</v>
+      </c>
+      <c r="Q82">
+        <v>-1.43834848</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.3126055639949387</v>
+      </c>
+      <c r="T82">
+        <v>5.156453162397607</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.0658961340539361</v>
+      </c>
+      <c r="W82">
+        <v>0.1715948801742919</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.3294806702696805</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2015410169384213</v>
+      </c>
+      <c r="C83">
+        <v>-5.418353941872564</v>
+      </c>
+      <c r="D83">
+        <v>4.463246058127438</v>
+      </c>
+      <c r="E83">
+        <v>13.4116</v>
+      </c>
+      <c r="F83">
+        <v>14.8716</v>
+      </c>
+      <c r="G83">
+        <v>4.99</v>
+      </c>
+      <c r="H83">
+        <v>16.9</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.898</v>
+      </c>
+      <c r="K83">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L83">
+        <v>0.889</v>
+      </c>
+      <c r="M83">
+        <v>2.73191292</v>
+      </c>
+      <c r="N83">
+        <v>-1.84291292</v>
+      </c>
+      <c r="O83">
+        <v>-0.368582584</v>
+      </c>
+      <c r="P83">
+        <v>-1.474330336</v>
+      </c>
+      <c r="Q83">
+        <v>-1.465330336</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3285690147315145</v>
+      </c>
+      <c r="T83">
+        <v>5.427845434102744</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.06508260153475171</v>
+      </c>
+      <c r="W83">
+        <v>0.1717443260980661</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.3254130076737585</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2032850169384213</v>
+      </c>
+      <c r="C84">
+        <v>-5.64208024259529</v>
+      </c>
+      <c r="D84">
+        <v>4.423119757404712</v>
+      </c>
+      <c r="E84">
+        <v>13.5952</v>
+      </c>
+      <c r="F84">
+        <v>15.0552</v>
+      </c>
+      <c r="G84">
+        <v>4.99</v>
+      </c>
+      <c r="H84">
+        <v>16.9</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.898</v>
+      </c>
+      <c r="K84">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L84">
+        <v>0.889</v>
+      </c>
+      <c r="M84">
+        <v>2.76564024</v>
+      </c>
+      <c r="N84">
+        <v>-1.87664024</v>
+      </c>
+      <c r="O84">
+        <v>-0.3753280480000001</v>
+      </c>
+      <c r="P84">
+        <v>-1.501312192</v>
+      </c>
+      <c r="Q84">
+        <v>-1.492312192</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3463061822165986</v>
+      </c>
+      <c r="T84">
+        <v>5.729392402664008</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.06428891127213278</v>
+      </c>
+      <c r="W84">
+        <v>0.1718901269993092</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.3214445563606638</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2050290169384213</v>
+      </c>
+      <c r="C85">
+        <v>-5.865091470309883</v>
+      </c>
+      <c r="D85">
+        <v>4.383708529690118</v>
+      </c>
+      <c r="E85">
+        <v>13.7788</v>
+      </c>
+      <c r="F85">
+        <v>15.2388</v>
+      </c>
+      <c r="G85">
+        <v>4.99</v>
+      </c>
+      <c r="H85">
+        <v>16.9</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.898</v>
+      </c>
+      <c r="K85">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L85">
+        <v>0.889</v>
+      </c>
+      <c r="M85">
+        <v>2.79936756</v>
+      </c>
+      <c r="N85">
+        <v>-1.91036756</v>
+      </c>
+      <c r="O85">
+        <v>-0.3820735120000001</v>
+      </c>
+      <c r="P85">
+        <v>-1.528294048</v>
+      </c>
+      <c r="Q85">
+        <v>-1.519294048</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3661300752881633</v>
+      </c>
+      <c r="T85">
+        <v>6.066415485173657</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.06351434607608299</v>
+      </c>
+      <c r="W85">
+        <v>0.1720324146258236</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.3175717303804149</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2067730169384213</v>
+      </c>
+      <c r="C86">
+        <v>-6.087406570703386</v>
+      </c>
+      <c r="D86">
+        <v>4.344993429296612</v>
+      </c>
+      <c r="E86">
+        <v>13.9624</v>
+      </c>
+      <c r="F86">
+        <v>15.4224</v>
+      </c>
+      <c r="G86">
+        <v>4.99</v>
+      </c>
+      <c r="H86">
+        <v>16.9</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.898</v>
+      </c>
+      <c r="K86">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L86">
+        <v>0.889</v>
+      </c>
+      <c r="M86">
+        <v>2.83309488</v>
+      </c>
+      <c r="N86">
+        <v>-1.94409488</v>
+      </c>
+      <c r="O86">
+        <v>-0.388818976</v>
+      </c>
+      <c r="P86">
+        <v>-1.555275904</v>
+      </c>
+      <c r="Q86">
+        <v>-1.546275904</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3884319549936733</v>
+      </c>
+      <c r="T86">
+        <v>6.445566452997006</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.06275822290851057</v>
+      </c>
+      <c r="W86">
+        <v>0.1721713144517066</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.3137911145425528</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2085170169384213</v>
+      </c>
+      <c r="C87">
+        <v>-6.309043826040041</v>
+      </c>
+      <c r="D87">
+        <v>4.306956173959958</v>
+      </c>
+      <c r="E87">
+        <v>14.146</v>
+      </c>
+      <c r="F87">
+        <v>15.606</v>
+      </c>
+      <c r="G87">
+        <v>4.99</v>
+      </c>
+      <c r="H87">
+        <v>16.9</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.898</v>
+      </c>
+      <c r="K87">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L87">
+        <v>0.889</v>
+      </c>
+      <c r="M87">
+        <v>2.8668222</v>
+      </c>
+      <c r="N87">
+        <v>-1.9778222</v>
+      </c>
+      <c r="O87">
+        <v>-0.39556444</v>
+      </c>
+      <c r="P87">
+        <v>-1.58225776</v>
+      </c>
+      <c r="Q87">
+        <v>-1.57325776</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.4137074186599182</v>
+      </c>
+      <c r="T87">
+        <v>6.875270883196808</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.0620198908742928</v>
+      </c>
+      <c r="W87">
+        <v>0.1723069460463924</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.310099454371464</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2102610169384213</v>
+      </c>
+      <c r="C88">
+        <v>-6.530020883948183</v>
+      </c>
+      <c r="D88">
+        <v>4.269579116051816</v>
+      </c>
+      <c r="E88">
+        <v>14.3296</v>
+      </c>
+      <c r="F88">
+        <v>15.7896</v>
+      </c>
+      <c r="G88">
+        <v>4.99</v>
+      </c>
+      <c r="H88">
+        <v>16.9</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.898</v>
+      </c>
+      <c r="K88">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L88">
+        <v>0.889</v>
+      </c>
+      <c r="M88">
+        <v>2.90054952</v>
+      </c>
+      <c r="N88">
+        <v>-2.01154952</v>
+      </c>
+      <c r="O88">
+        <v>-0.402309904</v>
+      </c>
+      <c r="P88">
+        <v>-1.609239616</v>
+      </c>
+      <c r="Q88">
+        <v>-1.600239616</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4425936628499124</v>
+      </c>
+      <c r="T88">
+        <v>7.366361660568009</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.06129872935249869</v>
+      </c>
+      <c r="W88">
+        <v>0.172439423417946</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.3064936467624936</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2120050169384213</v>
+      </c>
+      <c r="C89">
+        <v>-6.75035478472113</v>
+      </c>
+      <c r="D89">
+        <v>4.23284521527887</v>
+      </c>
+      <c r="E89">
+        <v>14.5132</v>
+      </c>
+      <c r="F89">
+        <v>15.9732</v>
+      </c>
+      <c r="G89">
+        <v>4.99</v>
+      </c>
+      <c r="H89">
+        <v>16.9</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.898</v>
+      </c>
+      <c r="K89">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L89">
+        <v>0.889</v>
+      </c>
+      <c r="M89">
+        <v>2.93427684</v>
+      </c>
+      <c r="N89">
+        <v>-2.04527684</v>
+      </c>
+      <c r="O89">
+        <v>-0.409055368</v>
+      </c>
+      <c r="P89">
+        <v>-1.636221472</v>
+      </c>
+      <c r="Q89">
+        <v>-1.627221472</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4759239446075979</v>
+      </c>
+      <c r="T89">
+        <v>7.933004865227085</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.06059414625649297</v>
+      </c>
+      <c r="W89">
+        <v>0.1725688553326822</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.3029707312824649</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2137490169384213</v>
+      </c>
+      <c r="C90">
+        <v>-6.970061987220763</v>
+      </c>
+      <c r="D90">
+        <v>4.196738012779238</v>
+      </c>
+      <c r="E90">
+        <v>14.6968</v>
+      </c>
+      <c r="F90">
+        <v>16.1568</v>
+      </c>
+      <c r="G90">
+        <v>4.99</v>
+      </c>
+      <c r="H90">
+        <v>16.9</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.898</v>
+      </c>
+      <c r="K90">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L90">
+        <v>0.889</v>
+      </c>
+      <c r="M90">
+        <v>2.96800416</v>
+      </c>
+      <c r="N90">
+        <v>-2.07900416</v>
+      </c>
+      <c r="O90">
+        <v>-0.4158008320000001</v>
+      </c>
+      <c r="P90">
+        <v>-1.663203328</v>
+      </c>
+      <c r="Q90">
+        <v>-1.654203328</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.5148092733248979</v>
+      </c>
+      <c r="T90">
+        <v>8.594088603996012</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.05990557641266919</v>
+      </c>
+      <c r="W90">
+        <v>0.1726953456129927</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.2995278820633458</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2154930169384213</v>
+      </c>
+      <c r="C91">
+        <v>-7.18915839346653</v>
+      </c>
+      <c r="D91">
+        <v>4.161241606533469</v>
+      </c>
+      <c r="E91">
+        <v>14.8804</v>
+      </c>
+      <c r="F91">
+        <v>16.3404</v>
+      </c>
+      <c r="G91">
+        <v>4.99</v>
+      </c>
+      <c r="H91">
+        <v>16.9</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.898</v>
+      </c>
+      <c r="K91">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L91">
+        <v>0.889</v>
+      </c>
+      <c r="M91">
+        <v>3.00173148</v>
+      </c>
+      <c r="N91">
+        <v>-2.11273148</v>
+      </c>
+      <c r="O91">
+        <v>-0.422546296</v>
+      </c>
+      <c r="P91">
+        <v>-1.690185184</v>
+      </c>
+      <c r="Q91">
+        <v>-1.681185184</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5607646618089794</v>
+      </c>
+      <c r="T91">
+        <v>9.375369386177466</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.0592324800484819</v>
+      </c>
+      <c r="W91">
+        <v>0.1728189934150939</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.2961624002424094</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2172370169384213</v>
+      </c>
+      <c r="C92">
+        <v>-7.407659371987078</v>
+      </c>
+      <c r="D92">
+        <v>4.126340628012922</v>
+      </c>
+      <c r="E92">
+        <v>15.064</v>
+      </c>
+      <c r="F92">
+        <v>16.524</v>
+      </c>
+      <c r="G92">
+        <v>4.99</v>
+      </c>
+      <c r="H92">
+        <v>16.9</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.898</v>
+      </c>
+      <c r="K92">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L92">
+        <v>0.889</v>
+      </c>
+      <c r="M92">
+        <v>3.0354588</v>
+      </c>
+      <c r="N92">
+        <v>-2.1464588</v>
+      </c>
+      <c r="O92">
+        <v>-0.4292917600000001</v>
+      </c>
+      <c r="P92">
+        <v>-1.71716704</v>
+      </c>
+      <c r="Q92">
+        <v>-1.70816704</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.6159111279898775</v>
+      </c>
+      <c r="T92">
+        <v>10.31290632479521</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.05857434138127653</v>
+      </c>
+      <c r="W92">
+        <v>0.1729398934882595</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.2928717069063825</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2189810169384213</v>
+      </c>
+      <c r="C93">
+        <v>-7.6255797800065</v>
+      </c>
+      <c r="D93">
+        <v>4.0920202199935</v>
+      </c>
+      <c r="E93">
+        <v>15.2476</v>
+      </c>
+      <c r="F93">
+        <v>16.7076</v>
+      </c>
+      <c r="G93">
+        <v>4.99</v>
+      </c>
+      <c r="H93">
+        <v>16.9</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.898</v>
+      </c>
+      <c r="K93">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L93">
+        <v>0.889</v>
+      </c>
+      <c r="M93">
+        <v>3.06918612</v>
+      </c>
+      <c r="N93">
+        <v>-2.18018612</v>
+      </c>
+      <c r="O93">
+        <v>-0.4360372240000001</v>
+      </c>
+      <c r="P93">
+        <v>-1.744148896</v>
+      </c>
+      <c r="Q93">
+        <v>-1.735148896</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6833123644331972</v>
+      </c>
+      <c r="T93">
+        <v>11.45878480532802</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.05793066730016361</v>
+      </c>
+      <c r="W93">
+        <v>0.1730581364169599</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.2896533365008179</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2207250169384213</v>
+      </c>
+      <c r="C94">
+        <v>-7.842933984532579</v>
+      </c>
+      <c r="D94">
+        <v>4.058266015467422</v>
+      </c>
+      <c r="E94">
+        <v>15.4312</v>
+      </c>
+      <c r="F94">
+        <v>16.8912</v>
+      </c>
+      <c r="G94">
+        <v>4.99</v>
+      </c>
+      <c r="H94">
+        <v>16.9</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.898</v>
+      </c>
+      <c r="K94">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L94">
+        <v>0.889</v>
+      </c>
+      <c r="M94">
+        <v>3.10291344</v>
+      </c>
+      <c r="N94">
+        <v>-2.213913440000001</v>
+      </c>
+      <c r="O94">
+        <v>-0.4427826880000001</v>
+      </c>
+      <c r="P94">
+        <v>-1.771130752000001</v>
+      </c>
+      <c r="Q94">
+        <v>-1.762130752000001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.7675639099873471</v>
+      </c>
+      <c r="T94">
+        <v>12.89113290599402</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.05730098613385747</v>
+      </c>
+      <c r="W94">
+        <v>0.1731738088472104</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.2865049306692873</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2224690169384213</v>
+      </c>
+      <c r="C95">
+        <v>-8.05973588240979</v>
+      </c>
+      <c r="D95">
+        <v>4.025064117590209</v>
+      </c>
+      <c r="E95">
+        <v>15.6148</v>
+      </c>
+      <c r="F95">
+        <v>17.0748</v>
+      </c>
+      <c r="G95">
+        <v>4.99</v>
+      </c>
+      <c r="H95">
+        <v>16.9</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.898</v>
+      </c>
+      <c r="K95">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L95">
+        <v>0.889</v>
+      </c>
+      <c r="M95">
+        <v>3.13664076</v>
+      </c>
+      <c r="N95">
+        <v>-2.24764076</v>
+      </c>
+      <c r="O95">
+        <v>-0.4495281520000001</v>
+      </c>
+      <c r="P95">
+        <v>-1.798112608</v>
+      </c>
+      <c r="Q95">
+        <v>-1.789112608</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.8758873256998254</v>
+      </c>
+      <c r="T95">
+        <v>14.73272332113603</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.05668484649800955</v>
+      </c>
+      <c r="W95">
+        <v>0.1732869936983157</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.2834242324900477</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2242130169384213</v>
+      </c>
+      <c r="C96">
+        <v>-8.275998919396002</v>
+      </c>
+      <c r="D96">
+        <v>3.992401080604</v>
+      </c>
+      <c r="E96">
+        <v>15.7984</v>
+      </c>
+      <c r="F96">
+        <v>17.2584</v>
+      </c>
+      <c r="G96">
+        <v>4.99</v>
+      </c>
+      <c r="H96">
+        <v>16.9</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.898</v>
+      </c>
+      <c r="K96">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L96">
+        <v>0.889</v>
+      </c>
+      <c r="M96">
+        <v>3.17036808</v>
+      </c>
+      <c r="N96">
+        <v>-2.28136808</v>
+      </c>
+      <c r="O96">
+        <v>-0.456273616</v>
+      </c>
+      <c r="P96">
+        <v>-1.825094464</v>
+      </c>
+      <c r="Q96">
+        <v>-1.816094464</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.020318546649797</v>
+      </c>
+      <c r="T96">
+        <v>17.18817720799204</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.05608181621611583</v>
+      </c>
+      <c r="W96">
+        <v>0.1733977703610995</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.2804090810805792</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2259570169384213</v>
+      </c>
+      <c r="C97">
+        <v>-8.491736108317752</v>
+      </c>
+      <c r="D97">
+        <v>3.960263891682248</v>
+      </c>
+      <c r="E97">
+        <v>15.982</v>
+      </c>
+      <c r="F97">
+        <v>17.442</v>
+      </c>
+      <c r="G97">
+        <v>4.99</v>
+      </c>
+      <c r="H97">
+        <v>16.9</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.898</v>
+      </c>
+      <c r="K97">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L97">
+        <v>0.889</v>
+      </c>
+      <c r="M97">
+        <v>3.2040954</v>
+      </c>
+      <c r="N97">
+        <v>-2.3150954</v>
+      </c>
+      <c r="O97">
+        <v>-0.46301908</v>
+      </c>
+      <c r="P97">
+        <v>-1.85207632</v>
+      </c>
+      <c r="Q97">
+        <v>-1.84307632</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.222522255979757</v>
+      </c>
+      <c r="T97">
+        <v>20.62581264959045</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.05549148130857778</v>
+      </c>
+      <c r="W97">
+        <v>0.1735062148836143</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.2774574065428889</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2277010169384213</v>
+      </c>
+      <c r="C98">
+        <v>-8.706960046355738</v>
+      </c>
+      <c r="D98">
+        <v>3.928639953644261</v>
+      </c>
+      <c r="E98">
+        <v>16.1656</v>
+      </c>
+      <c r="F98">
+        <v>17.6256</v>
+      </c>
+      <c r="G98">
+        <v>4.99</v>
+      </c>
+      <c r="H98">
+        <v>16.9</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.898</v>
+      </c>
+      <c r="K98">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L98">
+        <v>0.889</v>
+      </c>
+      <c r="M98">
+        <v>3.23782272</v>
+      </c>
+      <c r="N98">
+        <v>-2.348822719999999</v>
+      </c>
+      <c r="O98">
+        <v>-0.4697645439999999</v>
+      </c>
+      <c r="P98">
+        <v>-1.879058176</v>
+      </c>
+      <c r="Q98">
+        <v>-1.870058176</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.525827819974692</v>
+      </c>
+      <c r="T98">
+        <v>25.78226581198801</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.05491344504494675</v>
+      </c>
+      <c r="W98">
+        <v>0.1736124001452433</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.2745672252247339</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2294450169384213</v>
+      </c>
+      <c r="C99">
+        <v>-8.921682931508629</v>
+      </c>
+      <c r="D99">
+        <v>3.897517068491372</v>
+      </c>
+      <c r="E99">
+        <v>16.3492</v>
+      </c>
+      <c r="F99">
+        <v>17.8092</v>
+      </c>
+      <c r="G99">
+        <v>4.99</v>
+      </c>
+      <c r="H99">
+        <v>16.9</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.898</v>
+      </c>
+      <c r="K99">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L99">
+        <v>0.889</v>
+      </c>
+      <c r="M99">
+        <v>3.27155004</v>
+      </c>
+      <c r="N99">
+        <v>-2.38255004</v>
+      </c>
+      <c r="O99">
+        <v>-0.476510008</v>
+      </c>
+      <c r="P99">
+        <v>-1.906040032</v>
+      </c>
+      <c r="Q99">
+        <v>-1.897040032</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.03133709329959</v>
+      </c>
+      <c r="T99">
+        <v>34.37635441598402</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.05434732705479266</v>
+      </c>
+      <c r="W99">
+        <v>0.1737163960200346</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.2717366352739633</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2311890169384213</v>
+      </c>
+      <c r="C100">
+        <v>-9.135916578280495</v>
+      </c>
+      <c r="D100">
+        <v>3.866883421719504</v>
+      </c>
+      <c r="E100">
+        <v>16.5328</v>
+      </c>
+      <c r="F100">
+        <v>17.9928</v>
+      </c>
+      <c r="G100">
+        <v>4.99</v>
+      </c>
+      <c r="H100">
+        <v>16.9</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.898</v>
+      </c>
+      <c r="K100">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L100">
+        <v>0.889</v>
+      </c>
+      <c r="M100">
+        <v>3.30527736</v>
+      </c>
+      <c r="N100">
+        <v>-2.41627736</v>
+      </c>
+      <c r="O100">
+        <v>-0.483255472</v>
+      </c>
+      <c r="P100">
+        <v>-1.933021888</v>
+      </c>
+      <c r="Q100">
+        <v>-1.924021888</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>3.042355639949385</v>
+      </c>
+      <c r="T100">
+        <v>51.56453162397602</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.05379276249300907</v>
+      </c>
+      <c r="W100">
+        <v>0.1738182695300342</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.2689638124650454</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2329330169384213</v>
+      </c>
+      <c r="C101">
+        <v>-9.349672432634222</v>
+      </c>
+      <c r="D101">
+        <v>3.836727567365779</v>
+      </c>
+      <c r="E101">
+        <v>16.7164</v>
+      </c>
+      <c r="F101">
+        <v>18.1764</v>
+      </c>
+      <c r="G101">
+        <v>4.99</v>
+      </c>
+      <c r="H101">
+        <v>16.9</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.898</v>
+      </c>
+      <c r="K101">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L101">
+        <v>0.889</v>
+      </c>
+      <c r="M101">
+        <v>3.33900468</v>
+      </c>
+      <c r="N101">
+        <v>-2.45000468</v>
+      </c>
+      <c r="O101">
+        <v>-0.4900009360000001</v>
+      </c>
+      <c r="P101">
+        <v>-1.960003744</v>
+      </c>
+      <c r="Q101">
+        <v>-1.951003744</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>6.075411279898769</v>
+      </c>
+      <c r="T101">
+        <v>103.129063247952</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.05324940125570593</v>
+      </c>
+      <c r="W101">
+        <v>0.1739180849893268</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.2662470062785297</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
